--- a/out_test/tables/F5122subx2_gray/F5122subx2_gray_30.xlsx
+++ b/out_test/tables/F5122subx2_gray/F5122subx2_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
   <si>
     <t>RWS</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Num_loose</t>
+  </si>
+  <si>
+    <t>Avg_NI_loose</t>
+  </si>
+  <si>
+    <t>Sigma_NI_loose</t>
+  </si>
+  <si>
+    <t>Avg_Num_loose</t>
+  </si>
+  <si>
+    <t>Sigma_Num_loose</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MM3"/>
+  <dimension ref="A1:OA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -673,15 +685,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:351">
+    <row r="1" spans="1:391">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -711,13 +723,13 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -742,9 +754,7 @@
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -752,7 +762,9 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
+      <c r="BQ1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -773,9 +785,7 @@
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
-      <c r="CL1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
       <c r="CO1" s="1"/>
@@ -787,7 +797,9 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -804,9 +816,7 @@
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
       <c r="DN1" s="1"/>
-      <c r="DO1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="DO1" s="1"/>
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
@@ -822,7 +832,9 @@
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
+      <c r="EE1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -835,9 +847,7 @@
       <c r="EO1" s="1"/>
       <c r="EP1" s="1"/>
       <c r="EQ1" s="1"/>
-      <c r="ER1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="ER1" s="1"/>
       <c r="ES1" s="1"/>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
@@ -857,7 +867,9 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
+      <c r="FL1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
       <c r="FO1" s="1"/>
@@ -866,9 +878,7 @@
       <c r="FR1" s="1"/>
       <c r="FS1" s="1"/>
       <c r="FT1" s="1"/>
-      <c r="FU1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="FU1" s="1"/>
       <c r="FV1" s="1"/>
       <c r="FW1" s="1"/>
       <c r="FX1" s="1"/>
@@ -892,14 +902,14 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
+      <c r="GS1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
       <c r="GW1" s="1"/>
-      <c r="GX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="GX1" s="1"/>
       <c r="GY1" s="1"/>
       <c r="GZ1" s="1"/>
       <c r="HA1" s="1"/>
@@ -927,10 +937,10 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
       <c r="ID1" s="1"/>
@@ -959,12 +969,12 @@
       <c r="JA1" s="1"/>
       <c r="JB1" s="1"/>
       <c r="JC1" s="1"/>
-      <c r="JD1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
+      <c r="JG1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -990,16 +1000,16 @@
       <c r="KD1" s="1"/>
       <c r="KE1" s="1"/>
       <c r="KF1" s="1"/>
-      <c r="KG1" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="KG1" s="1"/>
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
       <c r="KK1" s="1"/>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
+      <c r="KN1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1032,7 +1042,9 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
+      <c r="LU1" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
@@ -1051,8 +1063,48 @@
       <c r="MK1" s="1"/>
       <c r="ML1" s="1"/>
       <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
     </row>
-    <row r="2" spans="1:351">
+    <row r="2" spans="1:391">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1143,967 +1195,1087 @@
         <v>30</v>
       </c>
       <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>21</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>24</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>25</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>29</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
         <v>30</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>3</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BU2" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>8</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>9</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>10</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CA2" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CB2" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CC2" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CD2" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CE2" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CF2" t="s">
         <v>17</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CG2" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CH2" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CI2" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CJ2" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CK2" t="s">
         <v>22</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CL2" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CM2" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CN2" t="s">
         <v>25</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CO2" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CP2" t="s">
         <v>27</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CQ2" t="s">
         <v>28</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CR2" t="s">
         <v>29</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CS2" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CT2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" t="s">
         <v>2</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>3</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CZ2" t="s">
         <v>4</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DA2" t="s">
         <v>5</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DB2" t="s">
         <v>6</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DC2" t="s">
         <v>7</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DD2" t="s">
         <v>8</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DE2" t="s">
         <v>9</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DF2" t="s">
         <v>10</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DG2" t="s">
         <v>11</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DH2" t="s">
         <v>12</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DI2" t="s">
         <v>13</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DJ2" t="s">
         <v>14</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DK2" t="s">
         <v>15</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DL2" t="s">
         <v>16</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DM2" t="s">
         <v>17</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DN2" t="s">
         <v>18</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DO2" t="s">
         <v>19</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DP2" t="s">
         <v>20</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DQ2" t="s">
         <v>21</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DR2" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DS2" t="s">
         <v>23</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DT2" t="s">
         <v>24</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DU2" t="s">
         <v>25</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DV2" t="s">
         <v>26</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DW2" t="s">
         <v>27</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DX2" t="s">
         <v>28</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DY2" t="s">
         <v>29</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DZ2" t="s">
         <v>30</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE2" t="s">
         <v>2</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EF2" t="s">
         <v>3</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="EG2" t="s">
         <v>4</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="EH2" t="s">
         <v>5</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="EI2" t="s">
         <v>6</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EJ2" t="s">
         <v>7</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EK2" t="s">
         <v>8</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EL2" t="s">
         <v>9</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EM2" t="s">
         <v>10</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EN2" t="s">
         <v>11</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EO2" t="s">
         <v>12</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EP2" t="s">
         <v>13</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EQ2" t="s">
         <v>14</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="ER2" t="s">
         <v>15</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ES2" t="s">
         <v>16</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="ET2" t="s">
         <v>17</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EU2" t="s">
         <v>18</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EV2" t="s">
         <v>19</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EW2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EX2" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EY2" t="s">
         <v>22</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EZ2" t="s">
         <v>23</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FA2" t="s">
         <v>24</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FB2" t="s">
         <v>25</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FC2" t="s">
         <v>26</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FD2" t="s">
         <v>27</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FE2" t="s">
         <v>28</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FF2" t="s">
         <v>29</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="FG2" t="s">
         <v>30</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="FH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="FL2" t="s">
         <v>2</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="FM2" t="s">
         <v>3</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="FN2" t="s">
         <v>4</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FO2" t="s">
         <v>5</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="FP2" t="s">
         <v>6</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FQ2" t="s">
         <v>7</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FR2" t="s">
         <v>8</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FS2" t="s">
         <v>9</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FT2" t="s">
         <v>10</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FU2" t="s">
         <v>11</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FV2" t="s">
         <v>12</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FW2" t="s">
         <v>13</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FX2" t="s">
         <v>14</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FY2" t="s">
         <v>15</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FZ2" t="s">
         <v>16</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GA2" t="s">
         <v>17</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GB2" t="s">
         <v>18</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GC2" t="s">
         <v>19</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GE2" t="s">
         <v>21</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GF2" t="s">
         <v>22</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="GG2" t="s">
         <v>23</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="GH2" t="s">
         <v>24</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="GI2" t="s">
         <v>25</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="GJ2" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="GK2" t="s">
         <v>27</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="GL2" t="s">
         <v>28</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="GM2" t="s">
         <v>29</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="GN2" t="s">
         <v>30</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="GO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="GS2" t="s">
         <v>2</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="GT2" t="s">
         <v>3</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="GU2" t="s">
         <v>4</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="GV2" t="s">
         <v>5</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GW2" t="s">
         <v>6</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GX2" t="s">
         <v>7</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GY2" t="s">
         <v>8</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GZ2" t="s">
         <v>9</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HA2" t="s">
         <v>10</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HB2" t="s">
         <v>11</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HC2" t="s">
         <v>12</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HD2" t="s">
         <v>13</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HE2" t="s">
         <v>14</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="HF2" t="s">
         <v>15</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="HG2" t="s">
         <v>16</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="HH2" t="s">
         <v>17</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="HI2" t="s">
         <v>18</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="HJ2" t="s">
         <v>19</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="HK2" t="s">
         <v>20</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="HL2" t="s">
         <v>21</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="HM2" t="s">
         <v>22</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="HN2" t="s">
         <v>23</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="HO2" t="s">
         <v>24</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="HP2" t="s">
         <v>25</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="HQ2" t="s">
         <v>26</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="HR2" t="s">
         <v>27</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="HS2" t="s">
         <v>28</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="HT2" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="HU2" t="s">
         <v>30</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="HV2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>34</v>
+      </c>
+      <c r="HZ2" t="s">
         <v>2</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="IA2" t="s">
         <v>3</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="IB2" t="s">
         <v>4</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="IC2" t="s">
         <v>5</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="ID2" t="s">
         <v>6</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="IE2" t="s">
         <v>7</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="IF2" t="s">
         <v>8</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="IG2" t="s">
         <v>9</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="IH2" t="s">
         <v>10</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="II2" t="s">
         <v>11</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="IJ2" t="s">
         <v>12</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="IK2" t="s">
         <v>13</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="IL2" t="s">
         <v>14</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="IM2" t="s">
         <v>15</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="IN2" t="s">
         <v>16</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="IO2" t="s">
         <v>17</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="IP2" t="s">
         <v>18</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="IQ2" t="s">
         <v>19</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="IR2" t="s">
         <v>20</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="IS2" t="s">
         <v>21</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="IT2" t="s">
         <v>22</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="IU2" t="s">
         <v>23</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="IV2" t="s">
         <v>24</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="IW2" t="s">
         <v>25</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="IX2" t="s">
         <v>26</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="IY2" t="s">
         <v>27</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="IZ2" t="s">
         <v>28</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="JA2" t="s">
         <v>29</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="JB2" t="s">
         <v>30</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="JC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="JG2" t="s">
         <v>2</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="JH2" t="s">
         <v>3</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="JI2" t="s">
         <v>4</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="JJ2" t="s">
         <v>5</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="JK2" t="s">
         <v>6</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="JL2" t="s">
         <v>7</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="JM2" t="s">
         <v>8</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="JN2" t="s">
         <v>9</v>
       </c>
-      <c r="II2" t="s">
+      <c r="JO2" t="s">
         <v>10</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="JP2" t="s">
         <v>11</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="JQ2" t="s">
         <v>12</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="JR2" t="s">
         <v>13</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="JS2" t="s">
         <v>14</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="JT2" t="s">
         <v>15</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="JU2" t="s">
         <v>16</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="JV2" t="s">
         <v>17</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="JW2" t="s">
         <v>18</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="JX2" t="s">
         <v>19</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="JY2" t="s">
         <v>20</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="JZ2" t="s">
         <v>21</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="KA2" t="s">
         <v>22</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="KB2" t="s">
         <v>23</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="KC2" t="s">
         <v>24</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="KD2" t="s">
         <v>25</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="KE2" t="s">
         <v>26</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="KF2" t="s">
         <v>27</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="KG2" t="s">
         <v>28</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="KH2" t="s">
         <v>29</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="KI2" t="s">
         <v>30</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="KJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>34</v>
+      </c>
+      <c r="KN2" t="s">
         <v>2</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="KO2" t="s">
         <v>3</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="KP2" t="s">
         <v>4</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="KQ2" t="s">
         <v>5</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="KR2" t="s">
         <v>6</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="KS2" t="s">
         <v>7</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="KT2" t="s">
         <v>8</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="KU2" t="s">
         <v>9</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="KV2" t="s">
         <v>10</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="KW2" t="s">
         <v>11</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="KX2" t="s">
         <v>12</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="KY2" t="s">
         <v>13</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="KZ2" t="s">
         <v>14</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="LA2" t="s">
         <v>15</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="LB2" t="s">
         <v>16</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="LC2" t="s">
         <v>17</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="LD2" t="s">
         <v>18</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="LE2" t="s">
         <v>19</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="LF2" t="s">
         <v>20</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="LG2" t="s">
         <v>21</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="LH2" t="s">
         <v>22</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="LI2" t="s">
         <v>23</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="LJ2" t="s">
         <v>24</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="LK2" t="s">
         <v>25</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="LL2" t="s">
         <v>26</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="LM2" t="s">
         <v>27</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="LN2" t="s">
         <v>28</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="LO2" t="s">
         <v>29</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="LP2" t="s">
         <v>30</v>
       </c>
-      <c r="KG2" t="s">
-        <v>41</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>43</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>44</v>
-      </c>
-      <c r="KK2" t="s">
+      <c r="LQ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="LU2" t="s">
         <v>45</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="LV2" t="s">
         <v>46</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="LW2" t="s">
         <v>47</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="LX2" t="s">
+        <v>48</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="MB2" t="s">
         <v>6</v>
       </c>
-      <c r="KO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="KP2" t="s">
+      <c r="MC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="MD2" t="s">
         <v>8</v>
       </c>
-      <c r="KQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>50</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>52</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="ME2" t="s">
         <v>53</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="MF2" t="s">
         <v>54</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="MG2" t="s">
         <v>55</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="MH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="ML2" t="s">
         <v>11</v>
       </c>
-      <c r="KY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="KZ2" t="s">
+      <c r="MM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="MN2" t="s">
         <v>13</v>
       </c>
-      <c r="LA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="LE2" t="s">
+      <c r="MO2" t="s">
         <v>61</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="MP2" t="s">
         <v>62</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="MQ2" t="s">
         <v>63</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="MR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="MV2" t="s">
         <v>16</v>
       </c>
-      <c r="LI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="LJ2" t="s">
+      <c r="MW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="MX2" t="s">
         <v>18</v>
       </c>
-      <c r="LK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>68</v>
-      </c>
-      <c r="LO2" t="s">
+      <c r="MY2" t="s">
         <v>69</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="MZ2" t="s">
         <v>70</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="NA2" t="s">
         <v>71</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="NB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>74</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="NF2" t="s">
         <v>21</v>
       </c>
-      <c r="LS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="LT2" t="s">
+      <c r="NG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="NH2" t="s">
         <v>23</v>
       </c>
-      <c r="LU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>74</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>76</v>
-      </c>
-      <c r="LY2" t="s">
+      <c r="NI2" t="s">
         <v>77</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="NJ2" t="s">
         <v>78</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="NK2" t="s">
         <v>79</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="NL2" t="s">
         <v>80</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="NM2" t="s">
         <v>81</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="NN2" t="s">
         <v>82</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="NO2" t="s">
         <v>83</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="NP2" t="s">
         <v>84</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="NQ2" t="s">
         <v>85</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="NR2" t="s">
         <v>86</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="NS2" t="s">
         <v>87</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="NT2" t="s">
         <v>88</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="NU2" t="s">
         <v>89</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="NV2" t="s">
         <v>90</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="NW2" t="s">
         <v>91</v>
       </c>
+      <c r="NX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:351">
+    <row r="3" spans="1:391">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2111,1066 +2283,1174 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>26.0028</v>
+        <v>26.2063</v>
       </c>
       <c r="E3">
-        <v>26.00279999999999</v>
+        <v>26.20630000000001</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>0.635690235690236</v>
+        <v>0.6347826086956524</v>
       </c>
       <c r="K3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3643097643097642</v>
+        <v>0.3652173913043479</v>
       </c>
       <c r="P3">
-        <v>-0.3402069087198983</v>
+        <v>-0.3198805218913336</v>
       </c>
       <c r="Q3">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="R3">
-        <v>0.4964011808773791</v>
+        <v>0.6038864584828272</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0317042069877655</v>
+        <v>0.04903260529351099</v>
       </c>
       <c r="U3">
-        <v>-0.1612099999999899</v>
+        <v>-0.1602800000000002</v>
       </c>
       <c r="V3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="W3">
-        <v>4.714486666666662</v>
+        <v>5.735309999999998</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.04788363636363631</v>
+        <v>0.08528601449275396</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3">
-        <v>1.363636363636364</v>
+        <v>1.25</v>
       </c>
       <c r="AB3">
+        <v>13</v>
+      </c>
+      <c r="AC3">
+        <v>1.085897189402024</v>
+      </c>
+      <c r="AD3">
+        <v>46</v>
+      </c>
+      <c r="AE3">
+        <v>47</v>
+      </c>
+      <c r="AF3">
+        <v>23</v>
+      </c>
+      <c r="AG3">
+        <v>13.35102992281869</v>
+      </c>
+      <c r="AH3">
+        <v>24</v>
+      </c>
+      <c r="AI3">
+        <v>13.35102992281869</v>
+      </c>
+      <c r="AJ3">
+        <v>22</v>
+      </c>
+      <c r="AK3">
+        <v>25.4223</v>
+      </c>
+      <c r="AL3">
+        <v>25.42229999999999</v>
+      </c>
+      <c r="AM3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="AN3">
+        <v>3</v>
+      </c>
+      <c r="AO3">
+        <v>0.8</v>
+      </c>
+      <c r="AP3">
+        <v>6</v>
+      </c>
+      <c r="AQ3">
+        <v>0.641269841269841</v>
+      </c>
+      <c r="AR3">
+        <v>0.2</v>
+      </c>
+      <c r="AS3">
+        <v>6</v>
+      </c>
+      <c r="AT3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AU3">
+        <v>3</v>
+      </c>
+      <c r="AV3">
+        <v>0.3587301587301587</v>
+      </c>
+      <c r="AW3">
+        <v>-0.4845585181824312</v>
+      </c>
+      <c r="AX3">
+        <v>15</v>
+      </c>
+      <c r="AY3">
+        <v>0.5254476506450275</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0.05982937563186878</v>
+      </c>
+      <c r="BB3">
+        <v>-0.193839999999998</v>
+      </c>
+      <c r="BC3">
+        <v>15</v>
+      </c>
+      <c r="BD3">
+        <v>3.742053333333331</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.231280317460317</v>
+      </c>
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>22</v>
+      </c>
+      <c r="BJ3">
+        <v>0.9115440115440115</v>
+      </c>
+      <c r="BK3">
+        <v>21</v>
+      </c>
+      <c r="BL3">
+        <v>18</v>
+      </c>
+      <c r="BM3">
+        <v>12.5</v>
+      </c>
+      <c r="BN3">
+        <v>4.979123082096552</v>
+      </c>
+      <c r="BO3">
+        <v>9.5</v>
+      </c>
+      <c r="BP3">
+        <v>4.979123082096552</v>
+      </c>
+      <c r="BQ3">
+        <v>26</v>
+      </c>
+      <c r="BR3">
+        <v>26.0295</v>
+      </c>
+      <c r="BS3">
+        <v>26.0295</v>
+      </c>
+      <c r="BT3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="BU3">
+        <v>6</v>
+      </c>
+      <c r="BV3">
+        <v>0.8</v>
+      </c>
+      <c r="BW3">
+        <v>21</v>
+      </c>
+      <c r="BX3">
+        <v>0.6479999999999997</v>
+      </c>
+      <c r="BY3">
+        <v>0.2</v>
+      </c>
+      <c r="BZ3">
+        <v>21</v>
+      </c>
+      <c r="CA3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="CB3">
+        <v>6</v>
+      </c>
+      <c r="CC3">
+        <v>0.3520000000000001</v>
+      </c>
+      <c r="CD3">
+        <v>-0.1856953381770521</v>
+      </c>
+      <c r="CE3">
+        <v>22</v>
+      </c>
+      <c r="CF3">
+        <v>0.4708709557974166</v>
+      </c>
+      <c r="CG3">
+        <v>12</v>
+      </c>
+      <c r="CH3">
+        <v>0.09017980400877844</v>
+      </c>
+      <c r="CI3">
+        <v>-0.43459</v>
+      </c>
+      <c r="CJ3">
+        <v>4</v>
+      </c>
+      <c r="CK3">
+        <v>2.323493333333325</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3">
+        <v>0.2500399999999999</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>11</v>
+      </c>
+      <c r="CQ3">
+        <v>0.9313419273034658</v>
+      </c>
+      <c r="CR3">
+        <v>25</v>
+      </c>
+      <c r="CS3">
+        <v>25</v>
+      </c>
+      <c r="CT3">
+        <v>13</v>
+      </c>
+      <c r="CU3">
+        <v>7</v>
+      </c>
+      <c r="CV3">
+        <v>13</v>
+      </c>
+      <c r="CW3">
+        <v>7</v>
+      </c>
+      <c r="CX3">
+        <v>34</v>
+      </c>
+      <c r="CY3">
+        <v>25.9644</v>
+      </c>
+      <c r="CZ3">
+        <v>25.96439999999999</v>
+      </c>
+      <c r="DA3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="DB3">
+        <v>32</v>
+      </c>
+      <c r="DC3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="DF3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="DI3">
+        <v>32</v>
+      </c>
+      <c r="DJ3">
+        <v>0.3555555555555558</v>
+      </c>
+      <c r="DK3">
+        <v>-0.3293049209969345</v>
+      </c>
+      <c r="DL3">
         <v>16</v>
       </c>
-      <c r="AC3">
-        <v>1.036093927136841</v>
-      </c>
-      <c r="AD3">
-        <v>99</v>
-      </c>
-      <c r="AE3">
-        <v>89</v>
-      </c>
-      <c r="AF3">
+      <c r="DM3">
+        <v>0.6347965740058245</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0.02945228521561787</v>
+      </c>
+      <c r="DP3">
+        <v>-0.3763199999999962</v>
+      </c>
+      <c r="DQ3">
+        <v>26</v>
+      </c>
+      <c r="DR3">
+        <v>5.477243333333334</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0.06260363636363621</v>
+      </c>
+      <c r="DU3">
+        <v>1.5</v>
+      </c>
+      <c r="DV3">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="DW3">
+        <v>16</v>
+      </c>
+      <c r="DX3">
+        <v>1.020460371097464</v>
+      </c>
+      <c r="DY3">
         <v>33</v>
       </c>
-      <c r="AG3">
-        <v>25.7103</v>
-      </c>
-      <c r="AH3">
-        <v>25.71029999999999</v>
-      </c>
-      <c r="AI3">
+      <c r="DZ3">
+        <v>2</v>
+      </c>
+      <c r="EA3">
+        <v>32.5</v>
+      </c>
+      <c r="EB3">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="EC3">
+        <v>1.5</v>
+      </c>
+      <c r="ED3">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="EE3">
+        <v>72</v>
+      </c>
+      <c r="EF3">
+        <v>25.9935</v>
+      </c>
+      <c r="EG3">
+        <v>25.99350000000001</v>
+      </c>
+      <c r="EH3">
         <v>0.5</v>
       </c>
-      <c r="AJ3">
+      <c r="EI3">
+        <v>7</v>
+      </c>
+      <c r="EJ3">
+        <v>0.8</v>
+      </c>
+      <c r="EK3">
+        <v>58</v>
+      </c>
+      <c r="EL3">
+        <v>0.6408450704225349</v>
+      </c>
+      <c r="EM3">
+        <v>0.2</v>
+      </c>
+      <c r="EN3">
+        <v>58</v>
+      </c>
+      <c r="EO3">
+        <v>0.5</v>
+      </c>
+      <c r="EP3">
+        <v>7</v>
+      </c>
+      <c r="EQ3">
+        <v>0.3591549295774648</v>
+      </c>
+      <c r="ER3">
+        <v>-0.424264068711833</v>
+      </c>
+      <c r="ES3">
+        <v>68</v>
+      </c>
+      <c r="ET3">
+        <v>0.7130534635130829</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0.01161449769899754</v>
+      </c>
+      <c r="EW3">
+        <v>-0.2196733333333327</v>
+      </c>
+      <c r="EX3">
+        <v>8</v>
+      </c>
+      <c r="EY3">
+        <v>6.061653333333336</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0.06656000000000006</v>
+      </c>
+      <c r="FB3">
+        <v>1</v>
+      </c>
+      <c r="FC3">
+        <v>1.583333333333333</v>
+      </c>
+      <c r="FD3">
+        <v>27</v>
+      </c>
+      <c r="FE3">
+        <v>1.03052268781814</v>
+      </c>
+      <c r="FF3">
+        <v>71</v>
+      </c>
+      <c r="FG3">
+        <v>1</v>
+      </c>
+      <c r="FH3">
+        <v>71</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>1</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>50</v>
+      </c>
+      <c r="FM3">
+        <v>26.2144</v>
+      </c>
+      <c r="FN3">
+        <v>26.21439999999999</v>
+      </c>
+      <c r="FO3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="FR3">
+        <v>10</v>
+      </c>
+      <c r="FS3">
+        <v>0.6448979591836739</v>
+      </c>
+      <c r="FT3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="FU3">
+        <v>10</v>
+      </c>
+      <c r="FV3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0.3551020408163267</v>
+      </c>
+      <c r="FY3">
+        <v>-0.3333333333333272</v>
+      </c>
+      <c r="FZ3">
+        <v>36</v>
+      </c>
+      <c r="GA3">
+        <v>0.4704462138528056</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0.04177136173167684</v>
+      </c>
+      <c r="GD3">
+        <v>-0.1779600000000059</v>
+      </c>
+      <c r="GE3">
+        <v>6</v>
+      </c>
+      <c r="GF3">
+        <v>3.956106666666667</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0.09801129251700663</v>
+      </c>
+      <c r="GI3">
+        <v>0.5</v>
+      </c>
+      <c r="GJ3">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="GK3">
         <v>12</v>
       </c>
-      <c r="AK3">
+      <c r="GL3">
+        <v>1.148567037471385</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>40</v>
+      </c>
+      <c r="GT3">
+        <v>25.2735</v>
+      </c>
+      <c r="GU3">
+        <v>25.27350000000001</v>
+      </c>
+      <c r="GV3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="GW3">
+        <v>15</v>
+      </c>
+      <c r="GX3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0.6187499999999998</v>
-      </c>
-      <c r="AN3">
+      <c r="GY3">
+        <v>24</v>
+      </c>
+      <c r="GZ3">
+        <v>0.6256410256410256</v>
+      </c>
+      <c r="HA3">
         <v>0.2666666666666667</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
+      <c r="HB3">
+        <v>24</v>
+      </c>
+      <c r="HC3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="HD3">
+        <v>15</v>
+      </c>
+      <c r="HE3">
+        <v>0.3743589743589745</v>
+      </c>
+      <c r="HF3">
+        <v>-0.4008918628686365</v>
+      </c>
+      <c r="HG3">
+        <v>37</v>
+      </c>
+      <c r="HH3">
+        <v>0.518429124204689</v>
+      </c>
+      <c r="HI3">
+        <v>15</v>
+      </c>
+      <c r="HJ3">
+        <v>0.05431096286001624</v>
+      </c>
+      <c r="HK3">
+        <v>-0.1018700000000017</v>
+      </c>
+      <c r="HL3">
+        <v>13</v>
+      </c>
+      <c r="HM3">
+        <v>3.050259999999994</v>
+      </c>
+      <c r="HN3">
+        <v>0</v>
+      </c>
+      <c r="HO3">
+        <v>0.1080227350427352</v>
+      </c>
+      <c r="HP3">
+        <v>1</v>
+      </c>
+      <c r="HQ3">
+        <v>1.5</v>
+      </c>
+      <c r="HR3">
+        <v>16</v>
+      </c>
+      <c r="HS3">
+        <v>0.9785844068613935</v>
+      </c>
+      <c r="HT3">
+        <v>39</v>
+      </c>
+      <c r="HU3">
+        <v>40</v>
+      </c>
+      <c r="HV3">
+        <v>19.5</v>
+      </c>
+      <c r="HW3">
+        <v>11.33026919362466</v>
+      </c>
+      <c r="HX3">
+        <v>20.5</v>
+      </c>
+      <c r="HY3">
+        <v>11.33026919362466</v>
+      </c>
+      <c r="HZ3">
+        <v>39</v>
+      </c>
+      <c r="IA3">
+        <v>25.6519</v>
+      </c>
+      <c r="IB3">
+        <v>25.65189999999999</v>
+      </c>
+      <c r="IC3">
         <v>0.5</v>
       </c>
-      <c r="AQ3">
+      <c r="ID3">
+        <v>4</v>
+      </c>
+      <c r="IE3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="IF3">
+        <v>2</v>
+      </c>
+      <c r="IG3">
+        <v>0.6333333333333331</v>
+      </c>
+      <c r="IH3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="II3">
+        <v>2</v>
+      </c>
+      <c r="IJ3">
+        <v>0.5</v>
+      </c>
+      <c r="IK3">
+        <v>4</v>
+      </c>
+      <c r="IL3">
+        <v>0.366666666666667</v>
+      </c>
+      <c r="IM3">
+        <v>-0.3535533905933164</v>
+      </c>
+      <c r="IN3">
+        <v>24</v>
+      </c>
+      <c r="IO3">
+        <v>0.5118058073442153</v>
+      </c>
+      <c r="IP3">
+        <v>1</v>
+      </c>
+      <c r="IQ3">
+        <v>0.002563949336529547</v>
+      </c>
+      <c r="IR3">
+        <v>-0.2291999999999987</v>
+      </c>
+      <c r="IS3">
+        <v>6</v>
+      </c>
+      <c r="IT3">
+        <v>4.377870000000005</v>
+      </c>
+      <c r="IU3">
+        <v>1</v>
+      </c>
+      <c r="IV3">
+        <v>0.1596358771929823</v>
+      </c>
+      <c r="IW3">
+        <v>1.5</v>
+      </c>
+      <c r="IX3">
+        <v>0</v>
+      </c>
+      <c r="IY3">
+        <v>39</v>
+      </c>
+      <c r="IZ3">
+        <v>1.033811274195889</v>
+      </c>
+      <c r="JA3">
+        <v>38</v>
+      </c>
+      <c r="JB3">
+        <v>33</v>
+      </c>
+      <c r="JC3">
+        <v>22</v>
+      </c>
+      <c r="JD3">
+        <v>9.309493362512628</v>
+      </c>
+      <c r="JE3">
+        <v>17</v>
+      </c>
+      <c r="JF3">
+        <v>9.309493362512628</v>
+      </c>
+      <c r="JG3">
+        <v>55</v>
+      </c>
+      <c r="JH3">
+        <v>26.1519</v>
+      </c>
+      <c r="JI3">
+        <v>26.15189999999999</v>
+      </c>
+      <c r="JJ3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="JK3">
+        <v>36</v>
+      </c>
+      <c r="JL3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="JM3">
+        <v>21</v>
+      </c>
+      <c r="JN3">
+        <v>0.6209876543209879</v>
+      </c>
+      <c r="JO3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="JP3">
+        <v>21</v>
+      </c>
+      <c r="JQ3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="JR3">
+        <v>36</v>
+      </c>
+      <c r="JS3">
+        <v>0.3790123456790124</v>
+      </c>
+      <c r="JT3">
+        <v>-0.4242640687121479</v>
+      </c>
+      <c r="JU3">
+        <v>35</v>
+      </c>
+      <c r="JV3">
+        <v>0.4752156621888262</v>
+      </c>
+      <c r="JW3">
+        <v>1</v>
+      </c>
+      <c r="JX3">
+        <v>0.01875914835225759</v>
+      </c>
+      <c r="JY3">
+        <v>-0.03955000000000197</v>
+      </c>
+      <c r="JZ3">
         <v>12</v>
       </c>
-      <c r="AR3">
-        <v>0.3812500000000001</v>
-      </c>
-      <c r="AS3">
-        <v>-0.3248228261398602</v>
-      </c>
-      <c r="AT3">
-        <v>12</v>
-      </c>
-      <c r="AU3">
-        <v>0.4100818414161759</v>
-      </c>
-      <c r="AV3">
+      <c r="KA3">
+        <v>3.439620000000001</v>
+      </c>
+      <c r="KB3">
+        <v>0</v>
+      </c>
+      <c r="KC3">
+        <v>0.09434944444444428</v>
+      </c>
+      <c r="KD3">
+        <v>1</v>
+      </c>
+      <c r="KE3">
+        <v>1.5</v>
+      </c>
+      <c r="KF3">
+        <v>7</v>
+      </c>
+      <c r="KG3">
+        <v>1.019092194331582</v>
+      </c>
+      <c r="KH3">
+        <v>54</v>
+      </c>
+      <c r="KI3">
+        <v>55</v>
+      </c>
+      <c r="KJ3">
+        <v>27</v>
+      </c>
+      <c r="KK3">
+        <v>15.66045976336583</v>
+      </c>
+      <c r="KL3">
+        <v>28</v>
+      </c>
+      <c r="KM3">
+        <v>15.66045976336583</v>
+      </c>
+      <c r="KN3">
+        <v>25</v>
+      </c>
+      <c r="KO3">
+        <v>26.0848</v>
+      </c>
+      <c r="KP3">
+        <v>26.08479999999999</v>
+      </c>
+      <c r="KQ3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="KR3">
+        <v>15</v>
+      </c>
+      <c r="KS3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="KT3">
         <v>5</v>
       </c>
-      <c r="AW3">
-        <v>0.07831660516827324</v>
-      </c>
-      <c r="AX3">
-        <v>-0.3895866666666663</v>
-      </c>
-      <c r="AY3">
-        <v>4</v>
-      </c>
-      <c r="AZ3">
-        <v>2.273499999999995</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0.2066699999999999</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>1.25</v>
-      </c>
-      <c r="BE3">
-        <v>11</v>
-      </c>
-      <c r="BF3">
-        <v>1.054479458979802</v>
-      </c>
-      <c r="BG3">
-        <v>32</v>
-      </c>
-      <c r="BH3">
-        <v>32</v>
-      </c>
-      <c r="BI3">
-        <v>71</v>
-      </c>
-      <c r="BJ3">
-        <v>25.944</v>
-      </c>
-      <c r="BK3">
-        <v>25.944</v>
-      </c>
-      <c r="BL3">
+      <c r="KU3">
+        <v>0.6402777777777776</v>
+      </c>
+      <c r="KV3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="KW3">
+        <v>5</v>
+      </c>
+      <c r="KX3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="BM3">
-        <v>27</v>
-      </c>
-      <c r="BN3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="BO3">
+      <c r="KY3">
+        <v>15</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3597222222222222</v>
+      </c>
+      <c r="LA3">
+        <v>-0.4604723132563028</v>
+      </c>
+      <c r="LB3">
+        <v>23</v>
+      </c>
+      <c r="LC3">
+        <v>0.6743542903326684</v>
+      </c>
+      <c r="LD3">
+        <v>0</v>
+      </c>
+      <c r="LE3">
+        <v>0.009156817401683471</v>
+      </c>
+      <c r="LF3">
+        <v>-0.05400000000000205</v>
+      </c>
+      <c r="LG3">
+        <v>14</v>
+      </c>
+      <c r="LH3">
+        <v>5.987210000000001</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>0.1537215277777775</v>
+      </c>
+      <c r="LK3">
+        <v>0.5</v>
+      </c>
+      <c r="LL3">
+        <v>0</v>
+      </c>
+      <c r="LM3">
+        <v>25</v>
+      </c>
+      <c r="LN3">
+        <v>1.120714285714286</v>
+      </c>
+      <c r="LO3">
+        <v>24</v>
+      </c>
+      <c r="LP3">
+        <v>1</v>
+      </c>
+      <c r="LQ3">
+        <v>24</v>
+      </c>
+      <c r="LR3">
+        <v>0</v>
+      </c>
+      <c r="LS3">
+        <v>1</v>
+      </c>
+      <c r="LT3">
+        <v>0</v>
+      </c>
+      <c r="LU3">
+        <v>0.1</v>
+      </c>
+      <c r="LV3">
+        <v>1</v>
+      </c>
+      <c r="LW3">
+        <v>50</v>
+      </c>
+      <c r="LX3">
+        <v>50</v>
+      </c>
+      <c r="LY3">
+        <v>50</v>
+      </c>
+      <c r="LZ3">
+        <v>0</v>
+      </c>
+      <c r="MA3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="MB3">
+        <v>0</v>
+      </c>
+      <c r="MC3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="MD3">
         <v>10</v>
       </c>
-      <c r="BP3">
-        <v>0.641904761904762</v>
-      </c>
-      <c r="BQ3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="BR3">
+      <c r="ME3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="MF3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="MG3">
+        <v>0.6448979591836739</v>
+      </c>
+      <c r="MH3">
+        <v>0</v>
+      </c>
+      <c r="MI3">
+        <v>0</v>
+      </c>
+      <c r="MJ3">
+        <v>0</v>
+      </c>
+      <c r="MK3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="ML3">
         <v>10</v>
       </c>
-      <c r="BS3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="BT3">
-        <v>27</v>
-      </c>
-      <c r="BU3">
-        <v>0.3580952380952382</v>
-      </c>
-      <c r="BV3">
-        <v>-0.6467912036622289</v>
-      </c>
-      <c r="BW3">
-        <v>14</v>
-      </c>
-      <c r="BX3">
-        <v>0.5762078255689214</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0.04236024334004247</v>
-      </c>
-      <c r="CA3">
-        <v>-0.8226600000000062</v>
-      </c>
-      <c r="CB3">
-        <v>3</v>
-      </c>
-      <c r="CC3">
-        <v>4.257476666666658</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0.0494414761904762</v>
-      </c>
-      <c r="CF3">
-        <v>3</v>
-      </c>
-      <c r="CG3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="CH3">
-        <v>31</v>
-      </c>
-      <c r="CI3">
-        <v>1.057331623753715</v>
-      </c>
-      <c r="CJ3">
-        <v>70</v>
-      </c>
-      <c r="CK3">
-        <v>50</v>
-      </c>
-      <c r="CL3">
-        <v>29</v>
-      </c>
-      <c r="CM3">
-        <v>25.1119</v>
-      </c>
-      <c r="CN3">
-        <v>25.1119</v>
-      </c>
-      <c r="CO3">
+      <c r="MM3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="MN3">
+        <v>0</v>
+      </c>
+      <c r="MO3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="MP3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3551020408163267</v>
+      </c>
+      <c r="MR3">
+        <v>0</v>
+      </c>
+      <c r="MS3">
+        <v>0</v>
+      </c>
+      <c r="MT3">
+        <v>0</v>
+      </c>
+      <c r="MU3">
+        <v>-0.3333333333333272</v>
+      </c>
+      <c r="MV3">
+        <v>36</v>
+      </c>
+      <c r="MW3">
+        <v>0.4704462138528056</v>
+      </c>
+      <c r="MX3">
+        <v>0</v>
+      </c>
+      <c r="MY3">
+        <v>-0.3333333333333272</v>
+      </c>
+      <c r="MZ3">
+        <v>0.4704462138528056</v>
+      </c>
+      <c r="NA3">
+        <v>0.04177136173167684</v>
+      </c>
+      <c r="NB3">
+        <v>0</v>
+      </c>
+      <c r="NC3">
+        <v>0</v>
+      </c>
+      <c r="ND3">
+        <v>0</v>
+      </c>
+      <c r="NE3">
+        <v>-0.1779600000000059</v>
+      </c>
+      <c r="NF3">
+        <v>6</v>
+      </c>
+      <c r="NG3">
+        <v>3.956106666666667</v>
+      </c>
+      <c r="NH3">
+        <v>0</v>
+      </c>
+      <c r="NI3">
+        <v>-0.1779600000000059</v>
+      </c>
+      <c r="NJ3">
+        <v>3.956106666666667</v>
+      </c>
+      <c r="NK3">
+        <v>0.09801129251700663</v>
+      </c>
+      <c r="NL3">
         <v>0.5</v>
       </c>
-      <c r="CP3">
-        <v>26</v>
-      </c>
-      <c r="CQ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="CR3">
-        <v>2</v>
-      </c>
-      <c r="CS3">
-        <v>0.6333333333333332</v>
-      </c>
-      <c r="CT3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="CU3">
-        <v>2</v>
-      </c>
-      <c r="CV3">
+      <c r="NM3">
         <v>0.5</v>
       </c>
-      <c r="CW3">
-        <v>26</v>
-      </c>
-      <c r="CX3">
-        <v>0.3666666666666668</v>
-      </c>
-      <c r="CY3">
-        <v>-0.3174931107841528</v>
-      </c>
-      <c r="CZ3">
-        <v>17</v>
-      </c>
-      <c r="DA3">
-        <v>0.4857992726488965</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.0346309967778383</v>
-      </c>
-      <c r="DD3">
-        <v>-0.571586666666672</v>
-      </c>
-      <c r="DE3">
-        <v>17</v>
-      </c>
-      <c r="DF3">
-        <v>4.191643333333328</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>0.08925071428571421</v>
-      </c>
-      <c r="DI3">
-        <v>1</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DK3">
-        <v>25</v>
-      </c>
-      <c r="DL3">
-        <v>0.9297693309465009</v>
-      </c>
-      <c r="DM3">
-        <v>28</v>
-      </c>
-      <c r="DN3">
-        <v>25</v>
-      </c>
-      <c r="DO3">
-        <v>42</v>
-      </c>
-      <c r="DP3">
-        <v>25.1943</v>
-      </c>
-      <c r="DQ3">
-        <v>25.1943</v>
-      </c>
-      <c r="DR3">
+      <c r="NN3">
         <v>0.5</v>
       </c>
-      <c r="DS3">
-        <v>12</v>
-      </c>
-      <c r="DT3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="DU3">
-        <v>1</v>
-      </c>
-      <c r="DV3">
-        <v>0.6260162601626014</v>
-      </c>
-      <c r="DW3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="DX3">
-        <v>1</v>
-      </c>
-      <c r="DY3">
-        <v>0.5</v>
-      </c>
-      <c r="DZ3">
-        <v>12</v>
-      </c>
-      <c r="EA3">
-        <v>0.3739837398373984</v>
-      </c>
-      <c r="EB3">
-        <v>-0.2290884728775475</v>
-      </c>
-      <c r="EC3">
-        <v>7</v>
-      </c>
-      <c r="ED3">
-        <v>0.5800997749007099</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0.0691843004027294</v>
-      </c>
-      <c r="EG3">
-        <v>-0.6682700000000068</v>
-      </c>
-      <c r="EH3">
-        <v>7</v>
-      </c>
-      <c r="EI3">
-        <v>4.931416666666664</v>
-      </c>
-      <c r="EJ3">
-        <v>0</v>
-      </c>
-      <c r="EK3">
-        <v>0.1233365040650407</v>
-      </c>
-      <c r="EL3">
-        <v>2</v>
-      </c>
-      <c r="EM3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="EN3">
-        <v>26</v>
-      </c>
-      <c r="EO3">
-        <v>1.08222953268374</v>
-      </c>
-      <c r="EP3">
-        <v>41</v>
-      </c>
-      <c r="EQ3">
-        <v>25</v>
-      </c>
-      <c r="ER3">
-        <v>43</v>
-      </c>
-      <c r="ES3">
-        <v>25.606</v>
-      </c>
-      <c r="ET3">
-        <v>25.606</v>
-      </c>
-      <c r="EU3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="EV3">
-        <v>2</v>
-      </c>
-      <c r="EW3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="EX3">
-        <v>16</v>
-      </c>
-      <c r="EY3">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="EZ3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="FA3">
-        <v>16</v>
-      </c>
-      <c r="FB3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="FC3">
-        <v>2</v>
-      </c>
-      <c r="FD3">
-        <v>0.3555555555555558</v>
-      </c>
-      <c r="FE3">
-        <v>-0.4775254432506174</v>
-      </c>
-      <c r="FF3">
-        <v>13</v>
-      </c>
-      <c r="FG3">
-        <v>0.503719833104084</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>0.05768839911379291</v>
-      </c>
-      <c r="FJ3">
-        <v>-0.5255399999999995</v>
-      </c>
-      <c r="FK3">
-        <v>13</v>
-      </c>
-      <c r="FL3">
-        <v>4.23591333333334</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>0.09319873015873011</v>
-      </c>
-      <c r="FO3">
-        <v>1</v>
-      </c>
-      <c r="FP3">
-        <v>1.416666666666667</v>
-      </c>
-      <c r="FQ3">
-        <v>12</v>
-      </c>
-      <c r="FR3">
-        <v>1.023749659419975</v>
-      </c>
-      <c r="FS3">
-        <v>42</v>
-      </c>
-      <c r="FT3">
-        <v>41</v>
-      </c>
-      <c r="FU3">
-        <v>64</v>
-      </c>
-      <c r="FV3">
-        <v>26.2144</v>
-      </c>
-      <c r="FW3">
-        <v>26.21439999999999</v>
-      </c>
-      <c r="FX3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="FY3">
-        <v>6</v>
-      </c>
-      <c r="FZ3">
-        <v>0.8</v>
-      </c>
-      <c r="GA3">
-        <v>4</v>
-      </c>
-      <c r="GB3">
-        <v>0.6513227513227515</v>
-      </c>
-      <c r="GC3">
-        <v>0.2</v>
-      </c>
-      <c r="GD3">
-        <v>4</v>
-      </c>
-      <c r="GE3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="GF3">
-        <v>6</v>
-      </c>
-      <c r="GG3">
-        <v>0.3486772486772488</v>
-      </c>
-      <c r="GH3">
-        <v>-0.3527641774466536</v>
-      </c>
-      <c r="GI3">
-        <v>20</v>
-      </c>
-      <c r="GJ3">
-        <v>0.4416465838013549</v>
-      </c>
-      <c r="GK3">
-        <v>15</v>
-      </c>
-      <c r="GL3">
-        <v>0.04947032486645166</v>
-      </c>
-      <c r="GM3">
-        <v>-0.1346166666666662</v>
-      </c>
-      <c r="GN3">
-        <v>9</v>
-      </c>
-      <c r="GO3">
-        <v>2.592496666666666</v>
-      </c>
-      <c r="GP3">
-        <v>0</v>
-      </c>
-      <c r="GQ3">
-        <v>0.08907222222222208</v>
-      </c>
-      <c r="GR3">
-        <v>1</v>
-      </c>
-      <c r="GS3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="GT3">
-        <v>29</v>
-      </c>
-      <c r="GU3">
-        <v>1.091098600164078</v>
-      </c>
-      <c r="GV3">
-        <v>0</v>
-      </c>
-      <c r="GW3">
-        <v>0</v>
-      </c>
-      <c r="GX3">
-        <v>24</v>
-      </c>
-      <c r="GY3">
-        <v>26.2144</v>
-      </c>
-      <c r="GZ3">
-        <v>26.21439999999999</v>
-      </c>
-      <c r="HA3">
-        <v>0.5</v>
-      </c>
-      <c r="HB3">
-        <v>20</v>
-      </c>
-      <c r="HC3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="HD3">
-        <v>17</v>
-      </c>
-      <c r="HE3">
-        <v>0.6376811594202897</v>
-      </c>
-      <c r="HF3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="HG3">
-        <v>17</v>
-      </c>
-      <c r="HH3">
-        <v>0.5</v>
-      </c>
-      <c r="HI3">
-        <v>20</v>
-      </c>
-      <c r="HJ3">
-        <v>0.3623188405797101</v>
-      </c>
-      <c r="HK3">
-        <v>-0.194556929237375</v>
-      </c>
-      <c r="HL3">
-        <v>6</v>
-      </c>
-      <c r="HM3">
-        <v>0.4711412405896289</v>
-      </c>
-      <c r="HN3">
-        <v>1</v>
-      </c>
-      <c r="HO3">
-        <v>0.1297747294032543</v>
-      </c>
-      <c r="HP3">
-        <v>-0.1579533333333245</v>
-      </c>
-      <c r="HQ3">
-        <v>6</v>
-      </c>
-      <c r="HR3">
-        <v>3.713370000000003</v>
-      </c>
-      <c r="HS3">
-        <v>0</v>
-      </c>
-      <c r="HT3">
-        <v>0.288590289855072</v>
-      </c>
-      <c r="HU3">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="HV3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="HW3">
-        <v>13</v>
-      </c>
-      <c r="HX3">
-        <v>1.22004191072339</v>
-      </c>
-      <c r="HY3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>0</v>
-      </c>
-      <c r="IA3">
-        <v>59</v>
-      </c>
-      <c r="IB3">
-        <v>25.606</v>
-      </c>
-      <c r="IC3">
-        <v>25.606</v>
-      </c>
-      <c r="ID3">
-        <v>0.5</v>
-      </c>
-      <c r="IE3">
-        <v>7</v>
-      </c>
-      <c r="IF3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="IG3">
+      <c r="NO3">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="NP3">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="NQ3">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="NR3">
+        <v>1.148567037471385</v>
+      </c>
+      <c r="NS3">
+        <v>1.148567037471385</v>
+      </c>
+      <c r="NT3">
+        <v>1.148567037471385</v>
+      </c>
+      <c r="NU3">
+        <v>22</v>
+      </c>
+      <c r="NV3">
+        <v>72</v>
+      </c>
+      <c r="NW3">
         <v>40</v>
       </c>
-      <c r="IH3">
-        <v>0.6356321839080461</v>
-      </c>
-      <c r="II3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="IJ3">
-        <v>40</v>
-      </c>
-      <c r="IK3">
-        <v>0.5</v>
-      </c>
-      <c r="IL3">
-        <v>7</v>
-      </c>
-      <c r="IM3">
-        <v>0.3643678160919541</v>
-      </c>
-      <c r="IN3">
-        <v>-0.4150286783196214</v>
-      </c>
-      <c r="IO3">
-        <v>21</v>
-      </c>
-      <c r="IP3">
-        <v>0.5639351719418824</v>
-      </c>
-      <c r="IQ3">
-        <v>0</v>
-      </c>
-      <c r="IR3">
-        <v>0.01065033724321225</v>
-      </c>
-      <c r="IS3">
-        <v>-0.1015466666666676</v>
-      </c>
-      <c r="IT3">
-        <v>13</v>
-      </c>
-      <c r="IU3">
-        <v>4.536006666666665</v>
-      </c>
-      <c r="IV3">
-        <v>0</v>
-      </c>
-      <c r="IW3">
-        <v>0.05952729885057469</v>
-      </c>
-      <c r="IX3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="IY3">
-        <v>1.5</v>
-      </c>
-      <c r="IZ3">
-        <v>11</v>
-      </c>
-      <c r="JA3">
-        <v>1.025294843425976</v>
-      </c>
-      <c r="JB3">
-        <v>58</v>
-      </c>
-      <c r="JC3">
-        <v>51</v>
-      </c>
-      <c r="JD3">
-        <v>48</v>
-      </c>
-      <c r="JE3">
-        <v>25.048</v>
-      </c>
-      <c r="JF3">
-        <v>25.048</v>
-      </c>
-      <c r="JG3">
-        <v>0.5</v>
-      </c>
-      <c r="JH3">
-        <v>2</v>
-      </c>
-      <c r="JI3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="JJ3">
-        <v>22</v>
-      </c>
-      <c r="JK3">
-        <v>0.6234042553191489</v>
-      </c>
-      <c r="JL3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JM3">
-        <v>22</v>
-      </c>
-      <c r="JN3">
-        <v>0.5</v>
-      </c>
-      <c r="JO3">
-        <v>2</v>
-      </c>
-      <c r="JP3">
-        <v>0.3765957446808513</v>
-      </c>
-      <c r="JQ3">
-        <v>-0.4962844018258918</v>
-      </c>
-      <c r="JR3">
-        <v>21</v>
-      </c>
-      <c r="JS3">
-        <v>0.617447962702527</v>
-      </c>
-      <c r="JT3">
-        <v>1</v>
-      </c>
-      <c r="JU3">
-        <v>0.009764923422704477</v>
-      </c>
-      <c r="JV3">
-        <v>-0.3315266666666723</v>
-      </c>
-      <c r="JW3">
-        <v>6</v>
-      </c>
-      <c r="JX3">
-        <v>3.440213333333336</v>
-      </c>
-      <c r="JY3">
-        <v>1</v>
-      </c>
-      <c r="JZ3">
-        <v>0.1204374468085108</v>
-      </c>
-      <c r="KA3">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="KB3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="KC3">
-        <v>6</v>
-      </c>
-      <c r="KD3">
-        <v>1.082394076511724</v>
-      </c>
-      <c r="KE3">
-        <v>47</v>
-      </c>
-      <c r="KF3">
-        <v>18</v>
-      </c>
-      <c r="KG3">
-        <v>0.2</v>
-      </c>
-      <c r="KH3">
-        <v>2</v>
-      </c>
-      <c r="KI3">
-        <v>24</v>
-      </c>
-      <c r="KJ3">
-        <v>64</v>
-      </c>
-      <c r="KK3">
-        <v>44</v>
-      </c>
-      <c r="KL3">
-        <v>20</v>
-      </c>
-      <c r="KM3">
-        <v>0.5</v>
-      </c>
-      <c r="KN3">
-        <v>20</v>
-      </c>
-      <c r="KO3">
-        <v>0.8</v>
-      </c>
-      <c r="KP3">
-        <v>4</v>
-      </c>
-      <c r="KQ3">
-        <v>0.5166666666666666</v>
-      </c>
-      <c r="KR3">
-        <v>0.7666666666666666</v>
-      </c>
-      <c r="KS3">
-        <v>0.6445019553715206</v>
-      </c>
-      <c r="KT3">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="KU3">
-        <v>0.03333333333333338</v>
-      </c>
-      <c r="KV3">
-        <v>0.006820795951230918</v>
-      </c>
-      <c r="KW3">
-        <v>0.2</v>
-      </c>
-      <c r="KX3">
-        <v>4</v>
-      </c>
-      <c r="KY3">
-        <v>0.5</v>
-      </c>
-      <c r="KZ3">
-        <v>20</v>
-      </c>
-      <c r="LA3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="LB3">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="LC3">
-        <v>0.3554980446284794</v>
-      </c>
-      <c r="LD3">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="LE3">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="LF3">
-        <v>0.006820795951230668</v>
-      </c>
-      <c r="LG3">
-        <v>-0.3527641774466536</v>
-      </c>
-      <c r="LH3">
-        <v>20</v>
-      </c>
-      <c r="LI3">
-        <v>0.4711412405896289</v>
-      </c>
-      <c r="LJ3">
-        <v>1</v>
-      </c>
-      <c r="LK3">
-        <v>-0.2736605533420143</v>
-      </c>
-      <c r="LL3">
-        <v>0.4563939121954919</v>
-      </c>
-      <c r="LM3">
-        <v>0.08962252713485298</v>
-      </c>
-      <c r="LN3">
-        <v>0.07910362410463929</v>
-      </c>
-      <c r="LO3">
-        <v>0.01474732839413703</v>
-      </c>
-      <c r="LP3">
-        <v>0.04015220226840132</v>
-      </c>
-      <c r="LQ3">
-        <v>-0.1579533333333245</v>
-      </c>
-      <c r="LR3">
-        <v>6</v>
-      </c>
-      <c r="LS3">
-        <v>3.713370000000003</v>
-      </c>
-      <c r="LT3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>-0.1462849999999953</v>
-      </c>
-      <c r="LV3">
-        <v>3.152933333333334</v>
-      </c>
-      <c r="LW3">
-        <v>0.188831256038647</v>
-      </c>
-      <c r="LX3">
-        <v>1</v>
-      </c>
-      <c r="LY3">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="LZ3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="MA3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="MB3">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="MC3">
-        <v>1.335664335664336</v>
-      </c>
-      <c r="MD3">
-        <v>1.091098600164078</v>
-      </c>
-      <c r="ME3">
-        <v>1.22004191072339</v>
-      </c>
-      <c r="MF3">
-        <v>1.155570255443734</v>
-      </c>
-      <c r="MG3">
-        <v>29</v>
-      </c>
-      <c r="MH3">
-        <v>100</v>
-      </c>
-      <c r="MI3">
-        <v>53.125</v>
-      </c>
-      <c r="MJ3">
-        <v>21.76831125742188</v>
-      </c>
-      <c r="MK3">
-        <v>25.5279125</v>
-      </c>
-      <c r="ML3">
-        <v>0.3461912709670043</v>
-      </c>
-      <c r="MM3">
-        <v>26.0028</v>
+      <c r="NX3">
+        <v>15.20233900132184</v>
+      </c>
+      <c r="NY3">
+        <v>25.86423333333333</v>
+      </c>
+      <c r="NZ3">
+        <v>0.3147881227464314</v>
+      </c>
+      <c r="OA3">
+        <v>26.2063</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AE1"/>
-    <mergeCell ref="AF1:BH1"/>
-    <mergeCell ref="BI1:CK1"/>
-    <mergeCell ref="CL1:DN1"/>
-    <mergeCell ref="DO1:EQ1"/>
-    <mergeCell ref="ER1:FT1"/>
-    <mergeCell ref="FU1:GW1"/>
-    <mergeCell ref="GX1:HZ1"/>
-    <mergeCell ref="IA1:JC1"/>
-    <mergeCell ref="JD1:KF1"/>
-    <mergeCell ref="KG1:MM1"/>
+    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="AJ1:BP1"/>
+    <mergeCell ref="BQ1:CW1"/>
+    <mergeCell ref="CX1:ED1"/>
+    <mergeCell ref="EE1:FK1"/>
+    <mergeCell ref="FL1:GR1"/>
+    <mergeCell ref="GS1:HY1"/>
+    <mergeCell ref="HZ1:JF1"/>
+    <mergeCell ref="JG1:KM1"/>
+    <mergeCell ref="KN1:LT1"/>
+    <mergeCell ref="LU1:OA1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/F5122subx2_gray/F5122subx2_gray_30.xlsx
+++ b/out_test/tables/F5122subx2_gray/F5122subx2_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
   <si>
     <t>RWS</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Sigma_Num_loose</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -674,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:OA3"/>
+  <dimension ref="A1:RV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -685,15 +712,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:391">
+    <row r="1" spans="1:490">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -727,9 +754,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -738,7 +763,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -762,9 +789,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -782,7 +807,9 @@
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
       <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
+      <c r="CI1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -797,9 +824,7 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -826,15 +851,15 @@
       <c r="DV1" s="1"/>
       <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
+      <c r="DY1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -867,12 +892,12 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
+      <c r="FO1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
       <c r="FR1" s="1"/>
@@ -902,9 +927,7 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="GS1" s="1"/>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
@@ -916,7 +939,9 @@
       <c r="HB1" s="1"/>
       <c r="HC1" s="1"/>
       <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
+      <c r="HE1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="HF1" s="1"/>
       <c r="HG1" s="1"/>
       <c r="HH1" s="1"/>
@@ -937,9 +962,7 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
@@ -960,7 +983,9 @@
       <c r="IR1" s="1"/>
       <c r="IS1" s="1"/>
       <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
+      <c r="IU1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="IV1" s="1"/>
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
@@ -972,9 +997,7 @@
       <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="JG1" s="1"/>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -1004,12 +1027,12 @@
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
+      <c r="KK1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="KN1" s="1"/>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1042,15 +1065,15 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="LU1" s="1"/>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
       <c r="LY1" s="1"/>
       <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
+      <c r="MA1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="MB1" s="1"/>
       <c r="MC1" s="1"/>
       <c r="MD1" s="1"/>
@@ -1092,7 +1115,9 @@
       <c r="NN1" s="1"/>
       <c r="NO1" s="1"/>
       <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
+      <c r="NQ1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="NR1" s="1"/>
       <c r="NS1" s="1"/>
       <c r="NT1" s="1"/>
@@ -1103,8 +1128,109 @@
       <c r="NY1" s="1"/>
       <c r="NZ1" s="1"/>
       <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
     </row>
-    <row r="2" spans="1:391">
+    <row r="2" spans="1:490">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1207,1075 +1333,1372 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>14</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>16</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BK2" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BL2" t="s">
         <v>21</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BM2" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BN2" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BO2" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BP2" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BQ2" t="s">
         <v>26</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BR2" t="s">
         <v>27</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BS2" t="s">
         <v>28</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BT2" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>30</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
         <v>31</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BW2" t="s">
         <v>32</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BX2" t="s">
         <v>33</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BY2" t="s">
         <v>34</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BZ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CJ2" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CK2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CL2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CM2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CN2" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CO2" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CP2" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CQ2" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CR2" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CS2" t="s">
         <v>12</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CT2" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CU2" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CV2" t="s">
         <v>15</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CW2" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CX2" t="s">
         <v>17</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CY2" t="s">
         <v>18</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CZ2" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DA2" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DB2" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DC2" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DD2" t="s">
         <v>23</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="DE2" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="DF2" t="s">
         <v>25</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DG2" t="s">
         <v>26</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DH2" t="s">
         <v>27</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DI2" t="s">
         <v>28</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DJ2" t="s">
         <v>29</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DK2" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DL2" t="s">
         <v>31</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DM2" t="s">
         <v>32</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DN2" t="s">
         <v>33</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DO2" t="s">
         <v>34</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DP2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>39</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY2" t="s">
         <v>2</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DZ2" t="s">
         <v>3</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="EA2" t="s">
         <v>4</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="EB2" t="s">
         <v>5</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="EC2" t="s">
         <v>6</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="ED2" t="s">
         <v>7</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="EE2" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="EF2" t="s">
         <v>9</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="EG2" t="s">
         <v>10</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="EH2" t="s">
         <v>11</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="EI2" t="s">
         <v>12</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="EJ2" t="s">
         <v>13</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="EK2" t="s">
         <v>14</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="EL2" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="EM2" t="s">
         <v>16</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="EN2" t="s">
         <v>17</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="EO2" t="s">
         <v>18</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EP2" t="s">
         <v>19</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EQ2" t="s">
         <v>20</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="ER2" t="s">
         <v>21</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="ES2" t="s">
         <v>22</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="ET2" t="s">
         <v>23</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EU2" t="s">
         <v>24</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EV2" t="s">
         <v>25</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EW2" t="s">
         <v>26</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EX2" t="s">
         <v>27</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EY2" t="s">
         <v>28</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EZ2" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="FA2" t="s">
         <v>30</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="FB2" t="s">
         <v>31</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="FC2" t="s">
         <v>32</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="FD2" t="s">
         <v>33</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="FE2" t="s">
         <v>34</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="FF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>42</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO2" t="s">
         <v>2</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="FP2" t="s">
         <v>3</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="FQ2" t="s">
         <v>4</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="FR2" t="s">
         <v>5</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="FS2" t="s">
         <v>6</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="FT2" t="s">
         <v>7</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FU2" t="s">
         <v>8</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FV2" t="s">
         <v>9</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FW2" t="s">
         <v>10</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FX2" t="s">
         <v>11</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FY2" t="s">
         <v>12</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FZ2" t="s">
         <v>13</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="GA2" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="GB2" t="s">
         <v>15</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="GC2" t="s">
         <v>16</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="GD2" t="s">
         <v>17</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="GE2" t="s">
         <v>18</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="GF2" t="s">
         <v>19</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="GG2" t="s">
         <v>20</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="GH2" t="s">
         <v>21</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="GI2" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="GJ2" t="s">
         <v>23</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="GK2" t="s">
         <v>24</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="GL2" t="s">
         <v>25</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="GM2" t="s">
         <v>26</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="GN2" t="s">
         <v>27</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="GO2" t="s">
         <v>28</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="GP2" t="s">
         <v>29</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GQ2" t="s">
         <v>30</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GR2" t="s">
         <v>31</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GS2" t="s">
         <v>32</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GT2" t="s">
         <v>33</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GU2" t="s">
         <v>34</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GV2" t="s">
+        <v>35</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>38</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE2" t="s">
         <v>2</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="HF2" t="s">
         <v>3</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="HG2" t="s">
         <v>4</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="HH2" t="s">
         <v>5</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="HI2" t="s">
         <v>6</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="HJ2" t="s">
         <v>7</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="HK2" t="s">
         <v>8</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="HL2" t="s">
         <v>9</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="HM2" t="s">
         <v>10</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="HN2" t="s">
         <v>11</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="HO2" t="s">
         <v>12</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="HP2" t="s">
         <v>13</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="HQ2" t="s">
         <v>14</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="HR2" t="s">
         <v>15</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="HS2" t="s">
         <v>16</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="HT2" t="s">
         <v>17</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="HU2" t="s">
         <v>18</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HV2" t="s">
         <v>19</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HW2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HX2" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HY2" t="s">
         <v>22</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HZ2" t="s">
         <v>23</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="IA2" t="s">
         <v>24</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="IB2" t="s">
         <v>25</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="IC2" t="s">
         <v>26</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="ID2" t="s">
         <v>27</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="IE2" t="s">
         <v>28</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="IF2" t="s">
         <v>29</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="IG2" t="s">
         <v>30</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="IH2" t="s">
         <v>31</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="II2" t="s">
         <v>32</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="IJ2" t="s">
         <v>33</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="IK2" t="s">
         <v>34</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="IL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="IU2" t="s">
         <v>2</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="IV2" t="s">
         <v>3</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="IW2" t="s">
         <v>4</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="IX2" t="s">
         <v>5</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="IY2" t="s">
         <v>6</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="IZ2" t="s">
         <v>7</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="JA2" t="s">
         <v>8</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="JB2" t="s">
         <v>9</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="JC2" t="s">
         <v>10</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="JD2" t="s">
         <v>11</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="JE2" t="s">
         <v>12</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="JF2" t="s">
         <v>13</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="JG2" t="s">
         <v>14</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="JH2" t="s">
         <v>15</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="JI2" t="s">
         <v>16</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="JJ2" t="s">
         <v>17</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="JK2" t="s">
         <v>18</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="JL2" t="s">
         <v>19</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="JM2" t="s">
         <v>20</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="JN2" t="s">
         <v>21</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="JO2" t="s">
         <v>22</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="JP2" t="s">
         <v>23</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="JQ2" t="s">
         <v>24</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="JR2" t="s">
         <v>25</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="JS2" t="s">
         <v>26</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="JT2" t="s">
         <v>27</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="JU2" t="s">
         <v>28</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="JV2" t="s">
         <v>29</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="JW2" t="s">
         <v>30</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="JX2" t="s">
         <v>31</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="JY2" t="s">
         <v>32</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="JZ2" t="s">
         <v>33</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="KA2" t="s">
         <v>34</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="KB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="KK2" t="s">
         <v>2</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="KL2" t="s">
         <v>3</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="KM2" t="s">
         <v>4</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="KN2" t="s">
         <v>5</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="KO2" t="s">
         <v>6</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="KP2" t="s">
         <v>7</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="KQ2" t="s">
         <v>8</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="KR2" t="s">
         <v>9</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="KS2" t="s">
         <v>10</v>
       </c>
-      <c r="II2" t="s">
+      <c r="KT2" t="s">
         <v>11</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="KU2" t="s">
         <v>12</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="KV2" t="s">
         <v>13</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="KW2" t="s">
         <v>14</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="KX2" t="s">
         <v>15</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="KY2" t="s">
         <v>16</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="KZ2" t="s">
         <v>17</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="LA2" t="s">
         <v>18</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="LB2" t="s">
         <v>19</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="LC2" t="s">
         <v>20</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="LD2" t="s">
         <v>21</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="LE2" t="s">
         <v>22</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="LF2" t="s">
         <v>23</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="LG2" t="s">
         <v>24</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="LH2" t="s">
         <v>25</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="LI2" t="s">
         <v>26</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="LJ2" t="s">
         <v>27</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="LK2" t="s">
         <v>28</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="LL2" t="s">
         <v>29</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="LM2" t="s">
         <v>30</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="LN2" t="s">
         <v>31</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="LO2" t="s">
         <v>32</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="LP2" t="s">
         <v>33</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="LQ2" t="s">
         <v>34</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="LR2" t="s">
+        <v>35</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>37</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>38</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>39</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>40</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>41</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>42</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="MA2" t="s">
         <v>2</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="MB2" t="s">
         <v>3</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="MC2" t="s">
         <v>4</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="MD2" t="s">
         <v>5</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="ME2" t="s">
         <v>6</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="MF2" t="s">
         <v>7</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="MG2" t="s">
         <v>8</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="MH2" t="s">
         <v>9</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="MI2" t="s">
         <v>10</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="MJ2" t="s">
         <v>11</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="MK2" t="s">
         <v>12</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="ML2" t="s">
         <v>13</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="MM2" t="s">
         <v>14</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="MN2" t="s">
         <v>15</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="MO2" t="s">
         <v>16</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="MP2" t="s">
         <v>17</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="MQ2" t="s">
         <v>18</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="MR2" t="s">
         <v>19</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="MS2" t="s">
         <v>20</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="MT2" t="s">
         <v>21</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="MU2" t="s">
         <v>22</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="MV2" t="s">
         <v>23</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="MW2" t="s">
         <v>24</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="MX2" t="s">
         <v>25</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="MY2" t="s">
         <v>26</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="MZ2" t="s">
         <v>27</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="NA2" t="s">
         <v>28</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="NB2" t="s">
         <v>29</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="NC2" t="s">
         <v>30</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="ND2" t="s">
         <v>31</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="NE2" t="s">
         <v>32</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="NF2" t="s">
         <v>33</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="NG2" t="s">
         <v>34</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="NH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="NQ2" t="s">
         <v>2</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="NR2" t="s">
         <v>3</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="NS2" t="s">
         <v>4</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="NT2" t="s">
         <v>5</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="NU2" t="s">
         <v>6</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="NV2" t="s">
         <v>7</v>
       </c>
-      <c r="KT2" t="s">
+      <c r="NW2" t="s">
         <v>8</v>
       </c>
-      <c r="KU2" t="s">
+      <c r="NX2" t="s">
         <v>9</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="NY2" t="s">
         <v>10</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="NZ2" t="s">
         <v>11</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="OA2" t="s">
         <v>12</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="OB2" t="s">
         <v>13</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="OC2" t="s">
         <v>14</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="OD2" t="s">
         <v>15</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="OE2" t="s">
         <v>16</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="OF2" t="s">
         <v>17</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="OG2" t="s">
         <v>18</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="OH2" t="s">
         <v>19</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="OI2" t="s">
         <v>20</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="OJ2" t="s">
         <v>21</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="OK2" t="s">
         <v>22</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="OL2" t="s">
         <v>23</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="OM2" t="s">
         <v>24</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="ON2" t="s">
         <v>25</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="OO2" t="s">
         <v>26</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="OP2" t="s">
         <v>27</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="OQ2" t="s">
         <v>28</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="OR2" t="s">
         <v>29</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="OS2" t="s">
         <v>30</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="OT2" t="s">
         <v>31</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="OU2" t="s">
         <v>32</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="OV2" t="s">
         <v>33</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="OW2" t="s">
         <v>34</v>
       </c>
-      <c r="LU2" t="s">
-        <v>45</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>46</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>47</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>48</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>49</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="MB2" t="s">
+      <c r="OX2" t="s">
+        <v>35</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>55</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="PN2" t="s">
         <v>6</v>
       </c>
-      <c r="MC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="MD2" t="s">
+      <c r="PO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="PP2" t="s">
         <v>8</v>
       </c>
-      <c r="ME2" t="s">
-        <v>53</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="ML2" t="s">
+      <c r="PQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>64</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>65</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>66</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="PX2" t="s">
         <v>11</v>
       </c>
-      <c r="MM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="MN2" t="s">
+      <c r="PY2" t="s">
+        <v>69</v>
+      </c>
+      <c r="PZ2" t="s">
         <v>13</v>
       </c>
-      <c r="MO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>65</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>67</v>
-      </c>
-      <c r="MV2" t="s">
+      <c r="QA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="QH2" t="s">
         <v>16</v>
       </c>
-      <c r="MW2" t="s">
-        <v>68</v>
-      </c>
-      <c r="MX2" t="s">
+      <c r="QI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="QJ2" t="s">
         <v>18</v>
       </c>
-      <c r="MY2" t="s">
-        <v>69</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>74</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="NF2" t="s">
+      <c r="QK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>83</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="QR2" t="s">
         <v>21</v>
       </c>
-      <c r="NG2" t="s">
-        <v>76</v>
-      </c>
-      <c r="NH2" t="s">
+      <c r="QS2" t="s">
+        <v>85</v>
+      </c>
+      <c r="QT2" t="s">
         <v>23</v>
       </c>
-      <c r="NI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>82</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>83</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="NR2" t="s">
+      <c r="QU2" t="s">
         <v>86</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="QV2" t="s">
         <v>87</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="QW2" t="s">
         <v>88</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="QX2" t="s">
         <v>89</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="QY2" t="s">
         <v>90</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="QZ2" t="s">
         <v>91</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="RA2" t="s">
         <v>92</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="RB2" t="s">
         <v>93</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="RC2" t="s">
         <v>94</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="RD2" t="s">
         <v>95</v>
       </c>
+      <c r="RE2" t="s">
+        <v>96</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>104</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>35</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>40</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>41</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:391">
+    <row r="3" spans="1:490">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2283,1174 +2706,1444 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>26.2063</v>
+        <v>26.0623</v>
       </c>
       <c r="E3">
-        <v>26.20630000000001</v>
+        <v>26.06230000000001</v>
       </c>
       <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="I3">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>0.640677966101695</v>
+      </c>
+      <c r="K3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="L3">
+        <v>36</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>0.3593220338983051</v>
+      </c>
+      <c r="P3">
+        <v>-0.3044081364605194</v>
+      </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>0.8037264481124407</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.02304590670930214</v>
+      </c>
+      <c r="U3">
+        <v>-0.3389799999999994</v>
+      </c>
+      <c r="V3">
+        <v>26</v>
+      </c>
+      <c r="W3">
+        <v>7.633256666666661</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.03188491525423758</v>
+      </c>
+      <c r="Z3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>12</v>
+      </c>
+      <c r="AC3">
+        <v>1.042848342935744</v>
+      </c>
+      <c r="AD3">
+        <v>59</v>
+      </c>
+      <c r="AE3">
+        <v>56</v>
+      </c>
+      <c r="AF3">
+        <v>31.5</v>
+      </c>
+      <c r="AG3">
+        <v>15.94913790773659</v>
+      </c>
+      <c r="AH3">
+        <v>28.5</v>
+      </c>
+      <c r="AI3">
+        <v>15.94913790773659</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2335952204945091</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>1.084086780207179</v>
+      </c>
+      <c r="AM3">
+        <v>1.00048727543167</v>
+      </c>
+      <c r="AN3">
+        <v>59</v>
+      </c>
+      <c r="AO3">
+        <v>1.584159054055415</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.019680576227142</v>
+      </c>
+      <c r="AR3">
+        <v>59</v>
+      </c>
+      <c r="AS3">
+        <v>25</v>
+      </c>
+      <c r="AT3">
+        <v>25.4223</v>
+      </c>
+      <c r="AU3">
+        <v>25.42229999999999</v>
+      </c>
+      <c r="AV3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="AW3">
+        <v>22</v>
+      </c>
+      <c r="AX3">
+        <v>0.7</v>
+      </c>
+      <c r="AY3">
+        <v>7</v>
+      </c>
+      <c r="AZ3">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="BA3">
+        <v>0.3</v>
+      </c>
+      <c r="BB3">
+        <v>7</v>
+      </c>
+      <c r="BC3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="BD3">
+        <v>22</v>
+      </c>
+      <c r="BE3">
+        <v>0.3749999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>-0.2672612419124384</v>
+      </c>
+      <c r="BG3">
+        <v>24</v>
+      </c>
+      <c r="BH3">
+        <v>0.4290771695281024</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.04286392777050847</v>
+      </c>
+      <c r="BK3">
+        <v>-0.2505566666666716</v>
+      </c>
+      <c r="BL3">
+        <v>8</v>
+      </c>
+      <c r="BM3">
+        <v>3.055736666666665</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.2309668055555552</v>
+      </c>
+      <c r="BP3">
+        <v>1.5</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>25</v>
+      </c>
+      <c r="BS3">
+        <v>1.030934065934066</v>
+      </c>
+      <c r="BT3">
+        <v>24</v>
+      </c>
+      <c r="BU3">
+        <v>19</v>
+      </c>
+      <c r="BV3">
+        <v>15</v>
+      </c>
+      <c r="BW3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="BX3">
+        <v>10</v>
+      </c>
+      <c r="BY3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="BZ3">
+        <v>0.3281431708178744</v>
+      </c>
+      <c r="CA3">
+        <v>2</v>
+      </c>
+      <c r="CB3">
+        <v>1.318691711176011</v>
+      </c>
+      <c r="CC3">
+        <v>1.019281750864429</v>
+      </c>
+      <c r="CD3">
+        <v>17</v>
+      </c>
+      <c r="CE3">
+        <v>1.558214292507561</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1.055643778229017</v>
+      </c>
+      <c r="CH3">
+        <v>24</v>
+      </c>
+      <c r="CI3">
+        <v>45</v>
+      </c>
+      <c r="CJ3">
+        <v>26.1948</v>
+      </c>
+      <c r="CK3">
+        <v>26.1948</v>
+      </c>
+      <c r="CL3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CO3">
+        <v>15</v>
+      </c>
+      <c r="CP3">
+        <v>0.6348484848484847</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="CR3">
+        <v>15</v>
+      </c>
+      <c r="CS3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0.3651515151515153</v>
+      </c>
+      <c r="CV3">
+        <v>-0.3175225962582889</v>
+      </c>
+      <c r="CW3">
+        <v>11</v>
+      </c>
+      <c r="CX3">
+        <v>0.5893335711670019</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0.05267365929435597</v>
+      </c>
+      <c r="DA3">
+        <v>-0.3219466666666726</v>
+      </c>
+      <c r="DB3">
+        <v>11</v>
+      </c>
+      <c r="DC3">
+        <v>4.35446</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0.08215272727272721</v>
+      </c>
+      <c r="DF3">
+        <v>0.5</v>
+      </c>
+      <c r="DG3">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="DH3">
+        <v>30</v>
+      </c>
+      <c r="DI3">
+        <v>1.0733422773816</v>
+      </c>
+      <c r="DJ3">
+        <v>44</v>
+      </c>
+      <c r="DK3">
+        <v>43</v>
+      </c>
+      <c r="DL3">
+        <v>23</v>
+      </c>
+      <c r="DM3">
+        <v>12.19631091765047</v>
+      </c>
+      <c r="DN3">
+        <v>22</v>
+      </c>
+      <c r="DO3">
+        <v>12.19631091765047</v>
+      </c>
+      <c r="DP3">
+        <v>0.4660631275478417</v>
+      </c>
+      <c r="DQ3">
+        <v>2</v>
+      </c>
+      <c r="DR3">
+        <v>1.160952485553639</v>
+      </c>
+      <c r="DS3">
+        <v>1.000319249199204</v>
+      </c>
+      <c r="DT3">
+        <v>44</v>
+      </c>
+      <c r="DU3">
+        <v>1.438326926601125</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1.029855770923052</v>
+      </c>
+      <c r="DX3">
+        <v>44</v>
+      </c>
+      <c r="DY3">
+        <v>24</v>
+      </c>
+      <c r="DZ3">
+        <v>26.1703</v>
+      </c>
+      <c r="EA3">
+        <v>26.1703</v>
+      </c>
+      <c r="EB3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="EE3">
+        <v>16</v>
+      </c>
+      <c r="EF3">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="EG3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="EH3">
+        <v>16</v>
+      </c>
+      <c r="EI3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0.3666666666666668</v>
+      </c>
+      <c r="EL3">
+        <v>-0.1613768738668523</v>
+      </c>
+      <c r="EM3">
+        <v>6</v>
+      </c>
+      <c r="EN3">
+        <v>0.447213595499954</v>
+      </c>
+      <c r="EO3">
+        <v>23</v>
+      </c>
+      <c r="EP3">
+        <v>0.08309674478285253</v>
+      </c>
+      <c r="EQ3">
+        <v>-0.2456200000000024</v>
+      </c>
+      <c r="ER3">
+        <v>6</v>
+      </c>
+      <c r="ES3">
+        <v>3.680019999999995</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0.1769149275362321</v>
+      </c>
+      <c r="EV3">
+        <v>1</v>
+      </c>
+      <c r="EW3">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="EX3">
+        <v>10</v>
+      </c>
+      <c r="EY3">
+        <v>0.8863585617694233</v>
+      </c>
+      <c r="EZ3">
+        <v>23</v>
+      </c>
+      <c r="FA3">
+        <v>24</v>
+      </c>
+      <c r="FB3">
+        <v>11.5</v>
+      </c>
+      <c r="FC3">
+        <v>6.711308863900295</v>
+      </c>
+      <c r="FD3">
+        <v>12.5</v>
+      </c>
+      <c r="FE3">
+        <v>6.711308863900295</v>
+      </c>
+      <c r="FF3">
+        <v>0.1752805289401864</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <v>1.186032106469964</v>
+      </c>
+      <c r="FI3">
+        <v>1.009459183716765</v>
+      </c>
+      <c r="FJ3">
+        <v>19</v>
+      </c>
+      <c r="FK3">
+        <v>1.4230532115922</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.055297303727753</v>
+      </c>
+      <c r="FN3">
+        <v>23</v>
+      </c>
+      <c r="FO3">
+        <v>66</v>
+      </c>
+      <c r="FP3">
+        <v>26.0028</v>
+      </c>
+      <c r="FQ3">
+        <v>26.00279999999999</v>
+      </c>
+      <c r="FR3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="FS3">
+        <v>59</v>
+      </c>
+      <c r="FT3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="FU3">
+        <v>11</v>
+      </c>
+      <c r="FV3">
+        <v>0.6425641025641027</v>
+      </c>
+      <c r="FW3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="FX3">
+        <v>11</v>
+      </c>
+      <c r="FY3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="FZ3">
+        <v>59</v>
+      </c>
+      <c r="GA3">
+        <v>0.3574358974358977</v>
+      </c>
+      <c r="GB3">
+        <v>-0.4444444444444347</v>
+      </c>
+      <c r="GC3">
+        <v>33</v>
+      </c>
+      <c r="GD3">
+        <v>0.5345183642627209</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0.0204335888204391</v>
+      </c>
+      <c r="GG3">
+        <v>-0.1347500000000004</v>
+      </c>
+      <c r="GH3">
+        <v>56</v>
+      </c>
+      <c r="GI3">
+        <v>4.543930000000003</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>0.09619666666666649</v>
+      </c>
+      <c r="GL3">
+        <v>2</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>8</v>
+      </c>
+      <c r="GO3">
+        <v>1.014419075863661</v>
+      </c>
+      <c r="GP3">
+        <v>65</v>
+      </c>
+      <c r="GQ3">
+        <v>59</v>
+      </c>
+      <c r="GR3">
+        <v>36</v>
+      </c>
+      <c r="GS3">
+        <v>16.81517172080024</v>
+      </c>
+      <c r="GT3">
+        <v>30</v>
+      </c>
+      <c r="GU3">
+        <v>16.81517172080024</v>
+      </c>
+      <c r="GV3">
+        <v>0.2799210360216507</v>
+      </c>
+      <c r="GW3">
+        <v>1</v>
+      </c>
+      <c r="GX3">
+        <v>1.327310272312006</v>
+      </c>
+      <c r="GY3">
+        <v>1.002077159340088</v>
+      </c>
+      <c r="GZ3">
+        <v>65</v>
+      </c>
+      <c r="HA3">
+        <v>1.723941246334253</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1.022940623423865</v>
+      </c>
+      <c r="HD3">
+        <v>65</v>
+      </c>
+      <c r="HE3">
+        <v>41</v>
+      </c>
+      <c r="HF3">
+        <v>26.1744</v>
+      </c>
+      <c r="HG3">
+        <v>26.1744</v>
+      </c>
+      <c r="HH3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="HI3">
+        <v>1</v>
+      </c>
+      <c r="HJ3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="I3">
-        <v>43</v>
-      </c>
-      <c r="J3">
-        <v>0.6347826086956524</v>
-      </c>
-      <c r="K3">
+      <c r="HK3">
+        <v>18</v>
+      </c>
+      <c r="HL3">
+        <v>0.6450000000000001</v>
+      </c>
+      <c r="HM3">
         <v>0.2666666666666667</v>
       </c>
-      <c r="L3">
-        <v>43</v>
-      </c>
-      <c r="M3">
+      <c r="HN3">
+        <v>18</v>
+      </c>
+      <c r="HO3">
         <v>0.4666666666666667</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.3652173913043479</v>
-      </c>
-      <c r="P3">
-        <v>-0.3198805218913336</v>
-      </c>
-      <c r="Q3">
-        <v>23</v>
-      </c>
-      <c r="R3">
-        <v>0.6038864584828272</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.04903260529351099</v>
-      </c>
-      <c r="U3">
-        <v>-0.1602800000000002</v>
-      </c>
-      <c r="V3">
-        <v>8</v>
-      </c>
-      <c r="W3">
-        <v>5.735309999999998</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.08528601449275396</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>1.25</v>
-      </c>
-      <c r="AB3">
-        <v>13</v>
-      </c>
-      <c r="AC3">
-        <v>1.085897189402024</v>
-      </c>
-      <c r="AD3">
-        <v>46</v>
-      </c>
-      <c r="AE3">
-        <v>47</v>
-      </c>
-      <c r="AF3">
-        <v>23</v>
-      </c>
-      <c r="AG3">
-        <v>13.35102992281869</v>
-      </c>
-      <c r="AH3">
-        <v>24</v>
-      </c>
-      <c r="AI3">
-        <v>13.35102992281869</v>
-      </c>
-      <c r="AJ3">
-        <v>22</v>
-      </c>
-      <c r="AK3">
-        <v>25.4223</v>
-      </c>
-      <c r="AL3">
-        <v>25.42229999999999</v>
-      </c>
-      <c r="AM3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="AN3">
-        <v>3</v>
-      </c>
-      <c r="AO3">
-        <v>0.8</v>
-      </c>
-      <c r="AP3">
-        <v>6</v>
-      </c>
-      <c r="AQ3">
-        <v>0.641269841269841</v>
-      </c>
-      <c r="AR3">
-        <v>0.2</v>
-      </c>
-      <c r="AS3">
-        <v>6</v>
-      </c>
-      <c r="AT3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="AU3">
-        <v>3</v>
-      </c>
-      <c r="AV3">
-        <v>0.3587301587301587</v>
-      </c>
-      <c r="AW3">
-        <v>-0.4845585181824312</v>
-      </c>
-      <c r="AX3">
-        <v>15</v>
-      </c>
-      <c r="AY3">
-        <v>0.5254476506450275</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0.05982937563186878</v>
-      </c>
-      <c r="BB3">
-        <v>-0.193839999999998</v>
-      </c>
-      <c r="BC3">
-        <v>15</v>
-      </c>
-      <c r="BD3">
-        <v>3.742053333333331</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0.231280317460317</v>
-      </c>
-      <c r="BG3">
-        <v>2</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>22</v>
-      </c>
-      <c r="BJ3">
-        <v>0.9115440115440115</v>
-      </c>
-      <c r="BK3">
-        <v>21</v>
-      </c>
-      <c r="BL3">
-        <v>18</v>
-      </c>
-      <c r="BM3">
-        <v>12.5</v>
-      </c>
-      <c r="BN3">
-        <v>4.979123082096552</v>
-      </c>
-      <c r="BO3">
-        <v>9.5</v>
-      </c>
-      <c r="BP3">
-        <v>4.979123082096552</v>
-      </c>
-      <c r="BQ3">
-        <v>26</v>
-      </c>
-      <c r="BR3">
-        <v>26.0295</v>
-      </c>
-      <c r="BS3">
-        <v>26.0295</v>
-      </c>
-      <c r="BT3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="BU3">
-        <v>6</v>
-      </c>
-      <c r="BV3">
-        <v>0.8</v>
-      </c>
-      <c r="BW3">
-        <v>21</v>
-      </c>
-      <c r="BX3">
-        <v>0.6479999999999997</v>
-      </c>
-      <c r="BY3">
-        <v>0.2</v>
-      </c>
-      <c r="BZ3">
-        <v>21</v>
-      </c>
-      <c r="CA3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="CB3">
-        <v>6</v>
-      </c>
-      <c r="CC3">
-        <v>0.3520000000000001</v>
-      </c>
-      <c r="CD3">
-        <v>-0.1856953381770521</v>
-      </c>
-      <c r="CE3">
-        <v>22</v>
-      </c>
-      <c r="CF3">
-        <v>0.4708709557974166</v>
-      </c>
-      <c r="CG3">
-        <v>12</v>
-      </c>
-      <c r="CH3">
-        <v>0.09017980400877844</v>
-      </c>
-      <c r="CI3">
-        <v>-0.43459</v>
-      </c>
-      <c r="CJ3">
-        <v>4</v>
-      </c>
-      <c r="CK3">
-        <v>2.323493333333325</v>
-      </c>
-      <c r="CL3">
-        <v>1</v>
-      </c>
-      <c r="CM3">
-        <v>0.2500399999999999</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>11</v>
-      </c>
-      <c r="CQ3">
-        <v>0.9313419273034658</v>
-      </c>
-      <c r="CR3">
-        <v>25</v>
-      </c>
-      <c r="CS3">
-        <v>25</v>
-      </c>
-      <c r="CT3">
-        <v>13</v>
-      </c>
-      <c r="CU3">
-        <v>7</v>
-      </c>
-      <c r="CV3">
-        <v>13</v>
-      </c>
-      <c r="CW3">
-        <v>7</v>
-      </c>
-      <c r="CX3">
-        <v>34</v>
-      </c>
-      <c r="CY3">
-        <v>25.9644</v>
-      </c>
-      <c r="CZ3">
-        <v>25.96439999999999</v>
-      </c>
-      <c r="DA3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="DB3">
-        <v>32</v>
-      </c>
-      <c r="DC3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="DD3">
-        <v>1</v>
-      </c>
-      <c r="DE3">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="DF3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="DG3">
-        <v>1</v>
-      </c>
-      <c r="DH3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="DI3">
-        <v>32</v>
-      </c>
-      <c r="DJ3">
-        <v>0.3555555555555558</v>
-      </c>
-      <c r="DK3">
-        <v>-0.3293049209969345</v>
-      </c>
-      <c r="DL3">
-        <v>16</v>
-      </c>
-      <c r="DM3">
-        <v>0.6347965740058245</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0.02945228521561787</v>
-      </c>
-      <c r="DP3">
-        <v>-0.3763199999999962</v>
-      </c>
-      <c r="DQ3">
-        <v>26</v>
-      </c>
-      <c r="DR3">
-        <v>5.477243333333334</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0.06260363636363621</v>
-      </c>
-      <c r="DU3">
-        <v>1.5</v>
-      </c>
-      <c r="DV3">
-        <v>1.214285714285714</v>
-      </c>
-      <c r="DW3">
-        <v>16</v>
-      </c>
-      <c r="DX3">
-        <v>1.020460371097464</v>
-      </c>
-      <c r="DY3">
-        <v>33</v>
-      </c>
-      <c r="DZ3">
-        <v>2</v>
-      </c>
-      <c r="EA3">
-        <v>32.5</v>
-      </c>
-      <c r="EB3">
-        <v>0.3535533905932738</v>
-      </c>
-      <c r="EC3">
-        <v>1.5</v>
-      </c>
-      <c r="ED3">
-        <v>0.3535533905932738</v>
-      </c>
-      <c r="EE3">
-        <v>72</v>
-      </c>
-      <c r="EF3">
-        <v>25.9935</v>
-      </c>
-      <c r="EG3">
-        <v>25.99350000000001</v>
-      </c>
-      <c r="EH3">
-        <v>0.5</v>
-      </c>
-      <c r="EI3">
-        <v>7</v>
-      </c>
-      <c r="EJ3">
-        <v>0.8</v>
-      </c>
-      <c r="EK3">
-        <v>58</v>
-      </c>
-      <c r="EL3">
-        <v>0.6408450704225349</v>
-      </c>
-      <c r="EM3">
-        <v>0.2</v>
-      </c>
-      <c r="EN3">
-        <v>58</v>
-      </c>
-      <c r="EO3">
-        <v>0.5</v>
-      </c>
-      <c r="EP3">
-        <v>7</v>
-      </c>
-      <c r="EQ3">
-        <v>0.3591549295774648</v>
-      </c>
-      <c r="ER3">
-        <v>-0.424264068711833</v>
-      </c>
-      <c r="ES3">
-        <v>68</v>
-      </c>
-      <c r="ET3">
-        <v>0.7130534635130829</v>
-      </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <v>0.01161449769899754</v>
-      </c>
-      <c r="EW3">
-        <v>-0.2196733333333327</v>
-      </c>
-      <c r="EX3">
-        <v>8</v>
-      </c>
-      <c r="EY3">
-        <v>6.061653333333336</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
-        <v>0.06656000000000006</v>
-      </c>
-      <c r="FB3">
-        <v>1</v>
-      </c>
-      <c r="FC3">
-        <v>1.583333333333333</v>
-      </c>
-      <c r="FD3">
-        <v>27</v>
-      </c>
-      <c r="FE3">
-        <v>1.03052268781814</v>
-      </c>
-      <c r="FF3">
-        <v>71</v>
-      </c>
-      <c r="FG3">
-        <v>1</v>
-      </c>
-      <c r="FH3">
-        <v>71</v>
-      </c>
-      <c r="FI3">
-        <v>0</v>
-      </c>
-      <c r="FJ3">
-        <v>1</v>
-      </c>
-      <c r="FK3">
-        <v>0</v>
-      </c>
-      <c r="FL3">
-        <v>50</v>
-      </c>
-      <c r="FM3">
-        <v>26.2144</v>
-      </c>
-      <c r="FN3">
-        <v>26.21439999999999</v>
-      </c>
-      <c r="FO3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="FP3">
-        <v>0</v>
-      </c>
-      <c r="FQ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="FR3">
-        <v>10</v>
-      </c>
-      <c r="FS3">
-        <v>0.6448979591836739</v>
-      </c>
-      <c r="FT3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="FU3">
-        <v>10</v>
-      </c>
-      <c r="FV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="FW3">
-        <v>0</v>
-      </c>
-      <c r="FX3">
-        <v>0.3551020408163267</v>
-      </c>
-      <c r="FY3">
-        <v>-0.3333333333333272</v>
-      </c>
-      <c r="FZ3">
-        <v>36</v>
-      </c>
-      <c r="GA3">
-        <v>0.4704462138528056</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0.04177136173167684</v>
-      </c>
-      <c r="GD3">
-        <v>-0.1779600000000059</v>
-      </c>
-      <c r="GE3">
-        <v>6</v>
-      </c>
-      <c r="GF3">
-        <v>3.956106666666667</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>0.09801129251700663</v>
-      </c>
-      <c r="GI3">
-        <v>0.5</v>
-      </c>
-      <c r="GJ3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="GK3">
-        <v>12</v>
-      </c>
-      <c r="GL3">
-        <v>1.148567037471385</v>
-      </c>
-      <c r="GM3">
-        <v>0</v>
-      </c>
-      <c r="GN3">
-        <v>0</v>
-      </c>
-      <c r="GS3">
-        <v>40</v>
-      </c>
-      <c r="GT3">
-        <v>25.2735</v>
-      </c>
-      <c r="GU3">
-        <v>25.27350000000001</v>
-      </c>
-      <c r="GV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="GW3">
-        <v>15</v>
-      </c>
-      <c r="GX3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="GY3">
-        <v>24</v>
-      </c>
-      <c r="GZ3">
-        <v>0.6256410256410256</v>
-      </c>
-      <c r="HA3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="HB3">
-        <v>24</v>
-      </c>
-      <c r="HC3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="HD3">
-        <v>15</v>
-      </c>
-      <c r="HE3">
-        <v>0.3743589743589745</v>
-      </c>
-      <c r="HF3">
-        <v>-0.4008918628686365</v>
-      </c>
-      <c r="HG3">
-        <v>37</v>
-      </c>
-      <c r="HH3">
-        <v>0.518429124204689</v>
-      </c>
-      <c r="HI3">
-        <v>15</v>
-      </c>
-      <c r="HJ3">
-        <v>0.05431096286001624</v>
-      </c>
-      <c r="HK3">
-        <v>-0.1018700000000017</v>
-      </c>
-      <c r="HL3">
-        <v>13</v>
-      </c>
-      <c r="HM3">
-        <v>3.050259999999994</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0.1080227350427352</v>
       </c>
       <c r="HP3">
         <v>1</v>
       </c>
       <c r="HQ3">
-        <v>1.5</v>
+        <v>0.3550000000000001</v>
       </c>
       <c r="HR3">
+        <v>-0.4094371914065766</v>
+      </c>
+      <c r="HS3">
+        <v>10</v>
+      </c>
+      <c r="HT3">
+        <v>0.5073800818492435</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0.05205825704145318</v>
+      </c>
+      <c r="HW3">
+        <v>-0.9721033333333331</v>
+      </c>
+      <c r="HX3">
+        <v>10</v>
+      </c>
+      <c r="HY3">
+        <v>4.266693333333329</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>0.1112991666666667</v>
+      </c>
+      <c r="IB3">
+        <v>1.6</v>
+      </c>
+      <c r="IC3">
+        <v>0</v>
+      </c>
+      <c r="ID3">
+        <v>28</v>
+      </c>
+      <c r="IE3">
+        <v>1.107557594010404</v>
+      </c>
+      <c r="IF3">
+        <v>40</v>
+      </c>
+      <c r="IG3">
+        <v>14</v>
+      </c>
+      <c r="IH3">
+        <v>33.5</v>
+      </c>
+      <c r="II3">
+        <v>3.824264635194588</v>
+      </c>
+      <c r="IJ3">
+        <v>7.5</v>
+      </c>
+      <c r="IK3">
+        <v>3.824264635194588</v>
+      </c>
+      <c r="IL3">
+        <v>0.07925933392899932</v>
+      </c>
+      <c r="IM3">
+        <v>5</v>
+      </c>
+      <c r="IN3">
+        <v>1.206789294630896</v>
+      </c>
+      <c r="IO3">
+        <v>1.003161516347404</v>
+      </c>
+      <c r="IP3">
+        <v>35</v>
+      </c>
+      <c r="IQ3">
+        <v>1.501763889700465</v>
+      </c>
+      <c r="IR3">
+        <v>0</v>
+      </c>
+      <c r="IS3">
+        <v>1.048110834096136</v>
+      </c>
+      <c r="IT3">
+        <v>40</v>
+      </c>
+      <c r="IU3">
+        <v>22</v>
+      </c>
+      <c r="IV3">
+        <v>26.2144</v>
+      </c>
+      <c r="IW3">
+        <v>26.21439999999999</v>
+      </c>
+      <c r="IX3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="IY3">
+        <v>14</v>
+      </c>
+      <c r="IZ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="JA3">
+        <v>1</v>
+      </c>
+      <c r="JB3">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="JC3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="JD3">
+        <v>1</v>
+      </c>
+      <c r="JE3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="JF3">
+        <v>14</v>
+      </c>
+      <c r="JG3">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="JH3">
+        <v>-0.2672612419124233</v>
+      </c>
+      <c r="JI3">
         <v>16</v>
       </c>
-      <c r="HS3">
-        <v>0.9785844068613935</v>
-      </c>
-      <c r="HT3">
-        <v>39</v>
-      </c>
-      <c r="HU3">
-        <v>40</v>
-      </c>
-      <c r="HV3">
-        <v>19.5</v>
-      </c>
-      <c r="HW3">
-        <v>11.33026919362466</v>
-      </c>
-      <c r="HX3">
-        <v>20.5</v>
-      </c>
-      <c r="HY3">
-        <v>11.33026919362466</v>
-      </c>
-      <c r="HZ3">
-        <v>39</v>
-      </c>
-      <c r="IA3">
-        <v>25.6519</v>
-      </c>
-      <c r="IB3">
-        <v>25.65189999999999</v>
-      </c>
-      <c r="IC3">
+      <c r="JJ3">
+        <v>0.5394493729499837</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0.08661680856193768</v>
+      </c>
+      <c r="JM3">
+        <v>-0.09739333333333278</v>
+      </c>
+      <c r="JN3">
+        <v>7</v>
+      </c>
+      <c r="JO3">
+        <v>4.014329999999998</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0.1995103174603172</v>
+      </c>
+      <c r="JR3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="JS3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="JT3">
+        <v>5</v>
+      </c>
+      <c r="JU3">
+        <v>1.219730212923289</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.0231969131159757</v>
+      </c>
+      <c r="KC3">
+        <v>3</v>
+      </c>
+      <c r="KD3">
+        <v>1.190228236349974</v>
+      </c>
+      <c r="KE3">
+        <v>1.002398571818604</v>
+      </c>
+      <c r="KF3">
+        <v>13</v>
+      </c>
+      <c r="KG3">
+        <v>1.455518362956418</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>1.036124902188372</v>
+      </c>
+      <c r="KJ3">
+        <v>21</v>
+      </c>
+      <c r="KK3">
+        <v>59</v>
+      </c>
+      <c r="KL3">
+        <v>26.1183</v>
+      </c>
+      <c r="KM3">
+        <v>26.11829999999999</v>
+      </c>
+      <c r="KN3">
         <v>0.5</v>
       </c>
-      <c r="ID3">
+      <c r="KO3">
+        <v>2</v>
+      </c>
+      <c r="KP3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="KQ3">
+        <v>19</v>
+      </c>
+      <c r="KR3">
+        <v>0.639080459770115</v>
+      </c>
+      <c r="KS3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="KT3">
+        <v>19</v>
+      </c>
+      <c r="KU3">
+        <v>0.5</v>
+      </c>
+      <c r="KV3">
+        <v>2</v>
+      </c>
+      <c r="KW3">
+        <v>0.3609195402298851</v>
+      </c>
+      <c r="KX3">
+        <v>-0.4902903378454427</v>
+      </c>
+      <c r="KY3">
+        <v>48</v>
+      </c>
+      <c r="KZ3">
+        <v>0.4893591740403895</v>
+      </c>
+      <c r="LA3">
+        <v>0</v>
+      </c>
+      <c r="LB3">
+        <v>0.03973221833737518</v>
+      </c>
+      <c r="LC3">
+        <v>-0.09008333333334306</v>
+      </c>
+      <c r="LD3">
+        <v>3</v>
+      </c>
+      <c r="LE3">
+        <v>4.494603333333327</v>
+      </c>
+      <c r="LF3">
+        <v>0</v>
+      </c>
+      <c r="LG3">
+        <v>0.09931454022988498</v>
+      </c>
+      <c r="LH3">
+        <v>1</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>8</v>
+      </c>
+      <c r="LK3">
+        <v>0.9751563064906918</v>
+      </c>
+      <c r="LL3">
+        <v>58</v>
+      </c>
+      <c r="LM3">
+        <v>59</v>
+      </c>
+      <c r="LN3">
+        <v>29</v>
+      </c>
+      <c r="LO3">
+        <v>16.81517172080024</v>
+      </c>
+      <c r="LP3">
+        <v>30</v>
+      </c>
+      <c r="LQ3">
+        <v>16.81517172080024</v>
+      </c>
+      <c r="LR3">
+        <v>0.3324229020786391</v>
+      </c>
+      <c r="LS3">
+        <v>0</v>
+      </c>
+      <c r="LT3">
+        <v>1.28754430882974</v>
+      </c>
+      <c r="LU3">
+        <v>1.000384041737983</v>
+      </c>
+      <c r="LV3">
+        <v>57</v>
+      </c>
+      <c r="LW3">
+        <v>1.652502733746918</v>
+      </c>
+      <c r="LX3">
+        <v>0</v>
+      </c>
+      <c r="LY3">
+        <v>1.015144703930913</v>
+      </c>
+      <c r="LZ3">
+        <v>58</v>
+      </c>
+      <c r="MA3">
+        <v>44</v>
+      </c>
+      <c r="MB3">
+        <v>26.0463</v>
+      </c>
+      <c r="MC3">
+        <v>26.0463</v>
+      </c>
+      <c r="MD3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="ME3">
+        <v>9</v>
+      </c>
+      <c r="MF3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="MG3">
+        <v>34</v>
+      </c>
+      <c r="MH3">
+        <v>0.6348837209302327</v>
+      </c>
+      <c r="MI3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="MJ3">
+        <v>34</v>
+      </c>
+      <c r="MK3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="ML3">
+        <v>9</v>
+      </c>
+      <c r="MM3">
+        <v>0.3651162790697676</v>
+      </c>
+      <c r="MN3">
+        <v>-0.4193765949901114</v>
+      </c>
+      <c r="MO3">
+        <v>21</v>
+      </c>
+      <c r="MP3">
+        <v>0.4964918072036541</v>
+      </c>
+      <c r="MQ3">
+        <v>0</v>
+      </c>
+      <c r="MR3">
+        <v>0.03854851324603167</v>
+      </c>
+      <c r="MS3">
+        <v>-0.1909566666666684</v>
+      </c>
+      <c r="MT3">
+        <v>8</v>
+      </c>
+      <c r="MU3">
+        <v>3.993526666666661</v>
+      </c>
+      <c r="MV3">
+        <v>0</v>
+      </c>
+      <c r="MW3">
+        <v>0.103147984496124</v>
+      </c>
+      <c r="MX3">
+        <v>0</v>
+      </c>
+      <c r="MY3">
+        <v>0</v>
+      </c>
+      <c r="MZ3">
+        <v>35</v>
+      </c>
+      <c r="NA3">
+        <v>1.018510574296148</v>
+      </c>
+      <c r="NB3">
+        <v>43</v>
+      </c>
+      <c r="NC3">
+        <v>43</v>
+      </c>
+      <c r="ND3">
+        <v>22</v>
+      </c>
+      <c r="NE3">
+        <v>12.19631091765047</v>
+      </c>
+      <c r="NF3">
+        <v>22</v>
+      </c>
+      <c r="NG3">
+        <v>12.19631091765047</v>
+      </c>
+      <c r="NH3">
+        <v>0.4213486778504531</v>
+      </c>
+      <c r="NI3">
+        <v>1</v>
+      </c>
+      <c r="NJ3">
+        <v>1.213015446962734</v>
+      </c>
+      <c r="NK3">
+        <v>1.001128238978594</v>
+      </c>
+      <c r="NL3">
+        <v>42</v>
+      </c>
+      <c r="NM3">
+        <v>1.487982626277075</v>
+      </c>
+      <c r="NN3">
+        <v>0</v>
+      </c>
+      <c r="NO3">
+        <v>1.020171939099672</v>
+      </c>
+      <c r="NP3">
+        <v>43</v>
+      </c>
+      <c r="NQ3">
+        <v>59</v>
+      </c>
+      <c r="NR3">
+        <v>26.214</v>
+      </c>
+      <c r="NS3">
+        <v>26.21400000000001</v>
+      </c>
+      <c r="NT3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="NU3">
+        <v>0</v>
+      </c>
+      <c r="NV3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="NW3">
+        <v>7</v>
+      </c>
+      <c r="NX3">
+        <v>0.6488505747126434</v>
+      </c>
+      <c r="NY3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="NZ3">
+        <v>7</v>
+      </c>
+      <c r="OA3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="OB3">
+        <v>0</v>
+      </c>
+      <c r="OC3">
+        <v>0.3511494252873564</v>
+      </c>
+      <c r="OD3">
+        <v>-0.4150286783196309</v>
+      </c>
+      <c r="OE3">
+        <v>46</v>
+      </c>
+      <c r="OF3">
+        <v>0.5315426924879236</v>
+      </c>
+      <c r="OG3">
+        <v>0</v>
+      </c>
+      <c r="OH3">
+        <v>0.03270437432750712</v>
+      </c>
+      <c r="OI3">
+        <v>-0.5974999999999966</v>
+      </c>
+      <c r="OJ3">
         <v>4</v>
       </c>
-      <c r="IE3">
+      <c r="OK3">
+        <v>4.719266666666673</v>
+      </c>
+      <c r="OL3">
+        <v>0</v>
+      </c>
+      <c r="OM3">
+        <v>0.08769758620689669</v>
+      </c>
+      <c r="ON3">
+        <v>0.5</v>
+      </c>
+      <c r="OO3">
+        <v>1.230769230769231</v>
+      </c>
+      <c r="OP3">
+        <v>9</v>
+      </c>
+      <c r="OQ3">
+        <v>1.039275996469039</v>
+      </c>
+      <c r="OR3">
+        <v>58</v>
+      </c>
+      <c r="OS3">
+        <v>59</v>
+      </c>
+      <c r="OT3">
+        <v>29</v>
+      </c>
+      <c r="OU3">
+        <v>16.81517172080024</v>
+      </c>
+      <c r="OV3">
+        <v>30</v>
+      </c>
+      <c r="OW3">
+        <v>16.81517172080024</v>
+      </c>
+      <c r="OX3">
+        <v>0.2327921768547681</v>
+      </c>
+      <c r="OY3">
+        <v>0</v>
+      </c>
+      <c r="OZ3">
+        <v>1.240750224588381</v>
+      </c>
+      <c r="PA3">
+        <v>1.001356074641404</v>
+      </c>
+      <c r="PB3">
+        <v>55</v>
+      </c>
+      <c r="PC3">
+        <v>1.597633063970574</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.02480647746608</v>
+      </c>
+      <c r="PF3">
+        <v>58</v>
+      </c>
+      <c r="PG3">
+        <v>0.1</v>
+      </c>
+      <c r="PH3">
+        <v>1</v>
+      </c>
+      <c r="PI3">
+        <v>22</v>
+      </c>
+      <c r="PJ3">
+        <v>22</v>
+      </c>
+      <c r="PK3">
+        <v>22</v>
+      </c>
+      <c r="PL3">
+        <v>0</v>
+      </c>
+      <c r="PM3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="PN3">
+        <v>14</v>
+      </c>
+      <c r="PO3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="IF3">
-        <v>2</v>
-      </c>
-      <c r="IG3">
-        <v>0.6333333333333331</v>
-      </c>
-      <c r="IH3">
+      <c r="PP3">
+        <v>1</v>
+      </c>
+      <c r="PQ3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="PR3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="PS3">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="PT3">
+        <v>0</v>
+      </c>
+      <c r="PU3">
+        <v>0</v>
+      </c>
+      <c r="PV3">
+        <v>0</v>
+      </c>
+      <c r="PW3">
         <v>0.2666666666666667</v>
       </c>
-      <c r="II3">
-        <v>2</v>
-      </c>
-      <c r="IJ3">
-        <v>0.5</v>
-      </c>
-      <c r="IK3">
-        <v>4</v>
-      </c>
-      <c r="IL3">
-        <v>0.366666666666667</v>
-      </c>
-      <c r="IM3">
-        <v>-0.3535533905933164</v>
-      </c>
-      <c r="IN3">
+      <c r="PX3">
+        <v>1</v>
+      </c>
+      <c r="PY3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="PZ3">
+        <v>14</v>
+      </c>
+      <c r="QA3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="QB3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="QC3">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="QD3">
+        <v>0</v>
+      </c>
+      <c r="QE3">
+        <v>0</v>
+      </c>
+      <c r="QF3">
+        <v>0</v>
+      </c>
+      <c r="QG3">
+        <v>-0.2672612419124233</v>
+      </c>
+      <c r="QH3">
+        <v>16</v>
+      </c>
+      <c r="QI3">
+        <v>0.5394493729499837</v>
+      </c>
+      <c r="QJ3">
+        <v>0</v>
+      </c>
+      <c r="QK3">
+        <v>-0.2672612419124233</v>
+      </c>
+      <c r="QL3">
+        <v>0.5394493729499837</v>
+      </c>
+      <c r="QM3">
+        <v>0.08661680856193768</v>
+      </c>
+      <c r="QN3">
+        <v>0</v>
+      </c>
+      <c r="QO3">
+        <v>0</v>
+      </c>
+      <c r="QP3">
+        <v>0</v>
+      </c>
+      <c r="QQ3">
+        <v>-0.09739333333333278</v>
+      </c>
+      <c r="QR3">
+        <v>7</v>
+      </c>
+      <c r="QS3">
+        <v>4.014329999999998</v>
+      </c>
+      <c r="QT3">
+        <v>0</v>
+      </c>
+      <c r="QU3">
+        <v>-0.09739333333333278</v>
+      </c>
+      <c r="QV3">
+        <v>4.014329999999998</v>
+      </c>
+      <c r="QW3">
+        <v>0.1995103174603172</v>
+      </c>
+      <c r="QX3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="QY3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="QZ3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="RA3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="RB3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="RC3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="RD3">
+        <v>1.219730212923289</v>
+      </c>
+      <c r="RE3">
+        <v>1.219730212923289</v>
+      </c>
+      <c r="RF3">
+        <v>1.219730212923289</v>
+      </c>
+      <c r="RG3">
         <v>24</v>
       </c>
-      <c r="IO3">
-        <v>0.5118058073442153</v>
-      </c>
-      <c r="IP3">
-        <v>1</v>
-      </c>
-      <c r="IQ3">
-        <v>0.002563949336529547</v>
-      </c>
-      <c r="IR3">
-        <v>-0.2291999999999987</v>
-      </c>
-      <c r="IS3">
-        <v>6</v>
-      </c>
-      <c r="IT3">
-        <v>4.377870000000005</v>
-      </c>
-      <c r="IU3">
-        <v>1</v>
-      </c>
-      <c r="IV3">
-        <v>0.1596358771929823</v>
-      </c>
-      <c r="IW3">
-        <v>1.5</v>
-      </c>
-      <c r="IX3">
-        <v>0</v>
-      </c>
-      <c r="IY3">
-        <v>39</v>
-      </c>
-      <c r="IZ3">
-        <v>1.033811274195889</v>
-      </c>
-      <c r="JA3">
-        <v>38</v>
-      </c>
-      <c r="JB3">
-        <v>33</v>
-      </c>
-      <c r="JC3">
-        <v>22</v>
-      </c>
-      <c r="JD3">
-        <v>9.309493362512628</v>
-      </c>
-      <c r="JE3">
-        <v>17</v>
-      </c>
-      <c r="JF3">
-        <v>9.309493362512628</v>
-      </c>
-      <c r="JG3">
-        <v>55</v>
-      </c>
-      <c r="JH3">
-        <v>26.1519</v>
-      </c>
-      <c r="JI3">
-        <v>26.15189999999999</v>
-      </c>
-      <c r="JJ3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="JK3">
-        <v>36</v>
-      </c>
-      <c r="JL3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="JM3">
-        <v>21</v>
-      </c>
-      <c r="JN3">
-        <v>0.6209876543209879</v>
-      </c>
-      <c r="JO3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="JP3">
-        <v>21</v>
-      </c>
-      <c r="JQ3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="JR3">
-        <v>36</v>
-      </c>
-      <c r="JS3">
-        <v>0.3790123456790124</v>
-      </c>
-      <c r="JT3">
-        <v>-0.4242640687121479</v>
-      </c>
-      <c r="JU3">
-        <v>35</v>
-      </c>
-      <c r="JV3">
-        <v>0.4752156621888262</v>
-      </c>
-      <c r="JW3">
-        <v>1</v>
-      </c>
-      <c r="JX3">
-        <v>0.01875914835225759</v>
-      </c>
-      <c r="JY3">
-        <v>-0.03955000000000197</v>
-      </c>
-      <c r="JZ3">
-        <v>12</v>
-      </c>
-      <c r="KA3">
-        <v>3.439620000000001</v>
-      </c>
-      <c r="KB3">
-        <v>0</v>
-      </c>
-      <c r="KC3">
-        <v>0.09434944444444428</v>
-      </c>
-      <c r="KD3">
-        <v>1</v>
-      </c>
-      <c r="KE3">
-        <v>1.5</v>
-      </c>
-      <c r="KF3">
-        <v>7</v>
-      </c>
-      <c r="KG3">
-        <v>1.019092194331582</v>
-      </c>
-      <c r="KH3">
-        <v>54</v>
-      </c>
-      <c r="KI3">
-        <v>55</v>
-      </c>
-      <c r="KJ3">
-        <v>27</v>
-      </c>
-      <c r="KK3">
-        <v>15.66045976336583</v>
-      </c>
-      <c r="KL3">
-        <v>28</v>
-      </c>
-      <c r="KM3">
-        <v>15.66045976336583</v>
-      </c>
-      <c r="KN3">
-        <v>25</v>
-      </c>
-      <c r="KO3">
-        <v>26.0848</v>
-      </c>
-      <c r="KP3">
-        <v>26.08479999999999</v>
-      </c>
-      <c r="KQ3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="KR3">
-        <v>15</v>
-      </c>
-      <c r="KS3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="KT3">
-        <v>5</v>
-      </c>
-      <c r="KU3">
-        <v>0.6402777777777776</v>
-      </c>
-      <c r="KV3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="KW3">
-        <v>5</v>
-      </c>
-      <c r="KX3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="KY3">
-        <v>15</v>
-      </c>
-      <c r="KZ3">
-        <v>0.3597222222222222</v>
-      </c>
-      <c r="LA3">
-        <v>-0.4604723132563028</v>
-      </c>
-      <c r="LB3">
-        <v>23</v>
-      </c>
-      <c r="LC3">
-        <v>0.6743542903326684</v>
-      </c>
-      <c r="LD3">
-        <v>0</v>
-      </c>
-      <c r="LE3">
-        <v>0.009156817401683471</v>
-      </c>
-      <c r="LF3">
-        <v>-0.05400000000000205</v>
-      </c>
-      <c r="LG3">
-        <v>14</v>
-      </c>
-      <c r="LH3">
-        <v>5.987210000000001</v>
-      </c>
-      <c r="LI3">
-        <v>0</v>
-      </c>
-      <c r="LJ3">
-        <v>0.1537215277777775</v>
-      </c>
-      <c r="LK3">
-        <v>0.5</v>
-      </c>
-      <c r="LL3">
-        <v>0</v>
-      </c>
-      <c r="LM3">
-        <v>25</v>
-      </c>
-      <c r="LN3">
-        <v>1.120714285714286</v>
-      </c>
-      <c r="LO3">
-        <v>24</v>
-      </c>
-      <c r="LP3">
-        <v>1</v>
-      </c>
-      <c r="LQ3">
-        <v>24</v>
-      </c>
-      <c r="LR3">
-        <v>0</v>
-      </c>
-      <c r="LS3">
-        <v>1</v>
-      </c>
-      <c r="LT3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>0.1</v>
-      </c>
-      <c r="LV3">
-        <v>1</v>
-      </c>
-      <c r="LW3">
-        <v>50</v>
-      </c>
-      <c r="LX3">
-        <v>50</v>
-      </c>
-      <c r="LY3">
-        <v>50</v>
-      </c>
-      <c r="LZ3">
-        <v>0</v>
-      </c>
-      <c r="MA3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="MB3">
-        <v>0</v>
-      </c>
-      <c r="MC3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="MD3">
-        <v>10</v>
-      </c>
-      <c r="ME3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="MF3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="MG3">
-        <v>0.6448979591836739</v>
-      </c>
-      <c r="MH3">
-        <v>0</v>
-      </c>
-      <c r="MI3">
-        <v>0</v>
-      </c>
-      <c r="MJ3">
-        <v>0</v>
-      </c>
-      <c r="MK3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="ML3">
-        <v>10</v>
-      </c>
-      <c r="MM3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="MN3">
-        <v>0</v>
-      </c>
-      <c r="MO3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="MP3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="MQ3">
-        <v>0.3551020408163267</v>
-      </c>
-      <c r="MR3">
-        <v>0</v>
-      </c>
-      <c r="MS3">
-        <v>0</v>
-      </c>
-      <c r="MT3">
-        <v>0</v>
-      </c>
-      <c r="MU3">
-        <v>-0.3333333333333272</v>
-      </c>
-      <c r="MV3">
-        <v>36</v>
-      </c>
-      <c r="MW3">
-        <v>0.4704462138528056</v>
-      </c>
-      <c r="MX3">
-        <v>0</v>
-      </c>
-      <c r="MY3">
-        <v>-0.3333333333333272</v>
-      </c>
-      <c r="MZ3">
-        <v>0.4704462138528056</v>
-      </c>
-      <c r="NA3">
-        <v>0.04177136173167684</v>
-      </c>
-      <c r="NB3">
-        <v>0</v>
-      </c>
-      <c r="NC3">
-        <v>0</v>
-      </c>
-      <c r="ND3">
-        <v>0</v>
-      </c>
-      <c r="NE3">
-        <v>-0.1779600000000059</v>
-      </c>
-      <c r="NF3">
-        <v>6</v>
-      </c>
-      <c r="NG3">
-        <v>3.956106666666667</v>
-      </c>
-      <c r="NH3">
-        <v>0</v>
-      </c>
-      <c r="NI3">
-        <v>-0.1779600000000059</v>
-      </c>
-      <c r="NJ3">
-        <v>3.956106666666667</v>
-      </c>
-      <c r="NK3">
-        <v>0.09801129251700663</v>
-      </c>
-      <c r="NL3">
-        <v>0.5</v>
-      </c>
-      <c r="NM3">
-        <v>0.5</v>
-      </c>
-      <c r="NN3">
-        <v>0.5</v>
-      </c>
-      <c r="NO3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="NP3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="NQ3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="NR3">
-        <v>1.148567037471385</v>
-      </c>
-      <c r="NS3">
-        <v>1.148567037471385</v>
-      </c>
-      <c r="NT3">
-        <v>1.148567037471385</v>
-      </c>
-      <c r="NU3">
-        <v>22</v>
-      </c>
-      <c r="NV3">
-        <v>72</v>
-      </c>
-      <c r="NW3">
-        <v>40</v>
-      </c>
-      <c r="NX3">
-        <v>15.20233900132184</v>
-      </c>
-      <c r="NY3">
-        <v>25.86423333333333</v>
-      </c>
-      <c r="NZ3">
-        <v>0.3147881227464314</v>
-      </c>
-      <c r="OA3">
-        <v>26.2063</v>
+      <c r="RH3">
+        <v>66</v>
+      </c>
+      <c r="RI3">
+        <v>47</v>
+      </c>
+      <c r="RJ3">
+        <v>14.45298892578587</v>
+      </c>
+      <c r="RK3">
+        <v>26.04505555555556</v>
+      </c>
+      <c r="RL3">
+        <v>0.2306164353356322</v>
+      </c>
+      <c r="RM3">
+        <v>26.214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AI1"/>
-    <mergeCell ref="AJ1:BP1"/>
-    <mergeCell ref="BQ1:CW1"/>
-    <mergeCell ref="CX1:ED1"/>
-    <mergeCell ref="EE1:FK1"/>
-    <mergeCell ref="FL1:GR1"/>
-    <mergeCell ref="GS1:HY1"/>
-    <mergeCell ref="HZ1:JF1"/>
-    <mergeCell ref="JG1:KM1"/>
-    <mergeCell ref="KN1:LT1"/>
-    <mergeCell ref="LU1:OA1"/>
+    <mergeCell ref="C1:AR1"/>
+    <mergeCell ref="AS1:CH1"/>
+    <mergeCell ref="CI1:DX1"/>
+    <mergeCell ref="DY1:FN1"/>
+    <mergeCell ref="FO1:HD1"/>
+    <mergeCell ref="HE1:IT1"/>
+    <mergeCell ref="IU1:KJ1"/>
+    <mergeCell ref="KK1:LZ1"/>
+    <mergeCell ref="MA1:NP1"/>
+    <mergeCell ref="NQ1:PF1"/>
+    <mergeCell ref="PG1:RV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/F5122subx2_gray/F5122subx2_gray_30.xlsx
+++ b/out_test/tables/F5122subx2_gray/F5122subx2_gray_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
   <si>
     <t>RWS</t>
   </si>
@@ -329,6 +329,66 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Aggregated</t>
@@ -701,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RV3"/>
+  <dimension ref="A1:SR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -712,12 +772,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:490">
+    <row r="1" spans="1:512">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -1160,7 +1220,7 @@
       <c r="PE1" s="1"/>
       <c r="PF1" s="1"/>
       <c r="PG1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="PH1" s="1"/>
       <c r="PI1" s="1"/>
@@ -1229,8 +1289,30 @@
       <c r="RT1" s="1"/>
       <c r="RU1" s="1"/>
       <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
     </row>
-    <row r="2" spans="1:490">
+    <row r="2" spans="1:512">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -2697,8 +2779,74 @@
       <c r="RV2" t="s">
         <v>43</v>
       </c>
+      <c r="RW2" t="s">
+        <v>105</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>106</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>120</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:490">
+    <row r="3" spans="1:512">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2706,118 +2854,118 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>26.0623</v>
+        <v>25.6815</v>
       </c>
       <c r="E3">
-        <v>26.06230000000001</v>
+        <v>25.68150000000001</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J3">
-        <v>0.640677966101695</v>
+        <v>0.635507246376812</v>
       </c>
       <c r="K3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M3">
         <v>0.5</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O3">
-        <v>0.3593220338983051</v>
+        <v>0.3644927536231884</v>
       </c>
       <c r="P3">
-        <v>-0.3044081364605194</v>
+        <v>-0.4619232433837594</v>
       </c>
       <c r="Q3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="R3">
-        <v>0.8037264481124407</v>
+        <v>0.4708709557973944</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T3">
-        <v>0.02304590670930214</v>
+        <v>0.003730807670308972</v>
       </c>
       <c r="U3">
-        <v>-0.3389799999999994</v>
+        <v>-0.2003799999999991</v>
       </c>
       <c r="V3">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="W3">
-        <v>7.633256666666661</v>
+        <v>2.923810000000003</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.03188491525423758</v>
+        <v>0.134996884057971</v>
       </c>
       <c r="Z3">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AA3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>0.9399446500370353</v>
+      </c>
+      <c r="AD3">
+        <v>46</v>
+      </c>
+      <c r="AE3">
+        <v>47</v>
+      </c>
+      <c r="AF3">
+        <v>23</v>
+      </c>
+      <c r="AG3">
+        <v>13.35102992281869</v>
+      </c>
+      <c r="AH3">
+        <v>24</v>
+      </c>
+      <c r="AI3">
+        <v>13.35102992281869</v>
+      </c>
+      <c r="AJ3">
+        <v>0.213483940190937</v>
+      </c>
+      <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AB3">
-        <v>12</v>
-      </c>
-      <c r="AC3">
-        <v>1.042848342935744</v>
-      </c>
-      <c r="AD3">
-        <v>59</v>
-      </c>
-      <c r="AE3">
-        <v>56</v>
-      </c>
-      <c r="AF3">
-        <v>31.5</v>
-      </c>
-      <c r="AG3">
-        <v>15.94913790773659</v>
-      </c>
-      <c r="AH3">
-        <v>28.5</v>
-      </c>
-      <c r="AI3">
-        <v>15.94913790773659</v>
-      </c>
-      <c r="AJ3">
-        <v>0.2335952204945091</v>
-      </c>
-      <c r="AK3">
-        <v>3</v>
-      </c>
       <c r="AL3">
-        <v>1.084086780207179</v>
+        <v>1.34586996851661</v>
       </c>
       <c r="AM3">
-        <v>1.00048727543167</v>
+        <v>1.003204321097463</v>
       </c>
       <c r="AN3">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="AO3">
         <v>1.584159054055415</v>
@@ -2826,124 +2974,124 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.019680576227142</v>
+        <v>1.030012070151979</v>
       </c>
       <c r="AR3">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AS3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT3">
-        <v>25.4223</v>
+        <v>25.4575</v>
       </c>
       <c r="AU3">
-        <v>25.42229999999999</v>
+        <v>25.4575</v>
       </c>
       <c r="AV3">
         <v>0.5333333333333333</v>
       </c>
       <c r="AW3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AX3">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AY3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ3">
-        <v>0.6249999999999999</v>
+        <v>0.6269841269841269</v>
       </c>
       <c r="BA3">
-        <v>0.3</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="BB3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC3">
         <v>0.4666666666666667</v>
       </c>
       <c r="BD3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="BE3">
-        <v>0.3749999999999999</v>
+        <v>0.3730158730158731</v>
       </c>
       <c r="BF3">
-        <v>-0.2672612419124384</v>
+        <v>-0.4855789826211905</v>
       </c>
       <c r="BG3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="BH3">
-        <v>0.4290771695281024</v>
+        <v>0.415028678319649</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BJ3">
-        <v>0.04286392777050847</v>
+        <v>0.08976439260998048</v>
       </c>
       <c r="BK3">
-        <v>-0.2505566666666716</v>
+        <v>-0.4366933333333307</v>
       </c>
       <c r="BL3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BM3">
-        <v>3.055736666666665</v>
+        <v>2.926999999999996</v>
       </c>
       <c r="BN3">
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.2309668055555552</v>
+        <v>0.2717685714285713</v>
       </c>
       <c r="BP3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="BS3">
-        <v>1.030934065934066</v>
+        <v>1.006106059921716</v>
       </c>
       <c r="BT3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BU3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BV3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BW3">
-        <v>5.267826876426369</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="BX3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BY3">
-        <v>5.267826876426369</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="BZ3">
-        <v>0.3281431708178744</v>
+        <v>0.302242240328416</v>
       </c>
       <c r="CA3">
         <v>2</v>
       </c>
       <c r="CB3">
-        <v>1.318691711176011</v>
+        <v>1.327287198815617</v>
       </c>
       <c r="CC3">
-        <v>1.019281750864429</v>
+        <v>1.002756209151528</v>
       </c>
       <c r="CD3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CE3">
         <v>1.558214292507561</v>
@@ -2952,124 +3100,124 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.055643778229017</v>
+        <v>1.061932646293902</v>
       </c>
       <c r="CH3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="CI3">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="CJ3">
-        <v>26.1948</v>
+        <v>25.944</v>
       </c>
       <c r="CK3">
-        <v>26.1948</v>
+        <v>25.944</v>
       </c>
       <c r="CL3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="CM3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CN3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="CO3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="CP3">
-        <v>0.6348484848484847</v>
+        <v>0.6196078431372548</v>
       </c>
       <c r="CQ3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CR3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="CS3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU3">
-        <v>0.3651515151515153</v>
+        <v>0.3803921568627451</v>
       </c>
       <c r="CV3">
-        <v>-0.3175225962582889</v>
+        <v>-0.3428216953337586</v>
       </c>
       <c r="CW3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CX3">
-        <v>0.5893335711670019</v>
+        <v>0.4369321390553756</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ3">
-        <v>0.05267365929435597</v>
+        <v>0.07297827520551688</v>
       </c>
       <c r="DA3">
-        <v>-0.3219466666666726</v>
+        <v>-0.5121200000000066</v>
       </c>
       <c r="DB3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="DC3">
-        <v>4.35446</v>
+        <v>3.208833333333335</v>
       </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.08215272727272721</v>
+        <v>0.2652674509803918</v>
       </c>
       <c r="DF3">
         <v>0.5</v>
       </c>
       <c r="DG3">
-        <v>1.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="DI3">
-        <v>1.0733422773816</v>
+        <v>0.7820984889950409</v>
       </c>
       <c r="DJ3">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="DK3">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="DL3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="DM3">
-        <v>12.19631091765047</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="DN3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="DO3">
-        <v>12.19631091765047</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="DP3">
-        <v>0.4660631275478417</v>
+        <v>0.0002968539827133506</v>
       </c>
       <c r="DQ3">
         <v>2</v>
       </c>
       <c r="DR3">
-        <v>1.160952485553639</v>
+        <v>1.223002965941438</v>
       </c>
       <c r="DS3">
-        <v>1.000319249199204</v>
+        <v>1.004660456596957</v>
       </c>
       <c r="DT3">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="DU3">
         <v>1.438326926601125</v>
@@ -3078,124 +3226,124 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>1.029855770923052</v>
+        <v>1.057818848461053</v>
       </c>
       <c r="DX3">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="DY3">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="DZ3">
-        <v>26.1703</v>
+        <v>26.2044</v>
       </c>
       <c r="EA3">
-        <v>26.1703</v>
+        <v>26.2044</v>
       </c>
       <c r="EB3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="EC3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="ED3">
         <v>0.7666666666666667</v>
       </c>
       <c r="EE3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.633333333333333</v>
+        <v>0.6390804597701151</v>
       </c>
       <c r="EG3">
         <v>0.2333333333333333</v>
       </c>
       <c r="EH3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="EJ3">
+        <v>26</v>
+      </c>
+      <c r="EK3">
+        <v>0.360919540229885</v>
+      </c>
+      <c r="EL3">
+        <v>-0.2941742027085202</v>
+      </c>
+      <c r="EM3">
+        <v>56</v>
+      </c>
+      <c r="EN3">
+        <v>0.6003040541594438</v>
+      </c>
+      <c r="EO3">
         <v>0</v>
       </c>
-      <c r="EK3">
-        <v>0.3666666666666668</v>
-      </c>
-      <c r="EL3">
-        <v>-0.1613768738668523</v>
-      </c>
-      <c r="EM3">
-        <v>6</v>
-      </c>
-      <c r="EN3">
-        <v>0.447213595499954</v>
-      </c>
-      <c r="EO3">
-        <v>23</v>
-      </c>
       <c r="EP3">
-        <v>0.08309674478285253</v>
+        <v>0.04525775493925657</v>
       </c>
       <c r="EQ3">
-        <v>-0.2456200000000024</v>
+        <v>-0.001120000000003785</v>
       </c>
       <c r="ER3">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="ES3">
-        <v>3.680019999999995</v>
+        <v>5.179629999999996</v>
       </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.1769149275362321</v>
+        <v>0.04488850574712638</v>
       </c>
       <c r="EV3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="EW3">
-        <v>1.153846153846154</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="EY3">
-        <v>0.8863585617694233</v>
+        <v>1.078858805977449</v>
       </c>
       <c r="EZ3">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="FA3">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="FB3">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="FC3">
-        <v>6.711308863900295</v>
+        <v>16.81517172080024</v>
       </c>
       <c r="FD3">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="FE3">
-        <v>6.711308863900295</v>
+        <v>16.81517172080024</v>
       </c>
       <c r="FF3">
-        <v>0.1752805289401864</v>
+        <v>0.2095197121046991</v>
       </c>
       <c r="FG3">
         <v>0</v>
       </c>
       <c r="FH3">
-        <v>1.186032106469964</v>
+        <v>1.110671077050843</v>
       </c>
       <c r="FI3">
-        <v>1.009459183716765</v>
+        <v>1.00020299548068</v>
       </c>
       <c r="FJ3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="FK3">
         <v>1.4230532115922</v>
@@ -3204,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>1.055297303727753</v>
+        <v>1.006600725884809</v>
       </c>
       <c r="FN3">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="FO3">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="FP3">
         <v>26.0028</v>
@@ -3219,109 +3367,109 @@
         <v>26.00279999999999</v>
       </c>
       <c r="FR3">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="FS3">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="FT3">
         <v>0.7666666666666667</v>
       </c>
       <c r="FU3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="FV3">
-        <v>0.6425641025641027</v>
+        <v>0.6440860215053762</v>
       </c>
       <c r="FW3">
         <v>0.2333333333333333</v>
       </c>
       <c r="FX3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="FY3">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="FZ3">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.3574358974358977</v>
+        <v>0.3559139784946238</v>
       </c>
       <c r="GB3">
-        <v>-0.4444444444444347</v>
+        <v>-0.2562868579644138</v>
       </c>
       <c r="GC3">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="GD3">
-        <v>0.5345183642627209</v>
+        <v>0.6372457343743271</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0204335888204391</v>
+        <v>0.1021465943337627</v>
       </c>
       <c r="GG3">
-        <v>-0.1347500000000004</v>
+        <v>-0.09405000000000285</v>
       </c>
       <c r="GH3">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="GI3">
-        <v>4.543930000000003</v>
+        <v>5.417213333333338</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.09619666666666649</v>
+        <v>0.1735322580645158</v>
       </c>
       <c r="GL3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="GN3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="GO3">
-        <v>1.014419075863661</v>
+        <v>1.052932989162608</v>
       </c>
       <c r="GP3">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="GQ3">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="GR3">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="GS3">
-        <v>16.81517172080024</v>
+        <v>8.443439267660228</v>
       </c>
       <c r="GT3">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="GU3">
-        <v>16.81517172080024</v>
+        <v>8.443439267660228</v>
       </c>
       <c r="GV3">
-        <v>0.2799210360216507</v>
+        <v>0.3960687860986388</v>
       </c>
       <c r="GW3">
         <v>1</v>
       </c>
       <c r="GX3">
-        <v>1.327310272312006</v>
+        <v>1.271105982068825</v>
       </c>
       <c r="GY3">
-        <v>1.002077159340088</v>
+        <v>1.00105869807086</v>
       </c>
       <c r="GZ3">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="HA3">
         <v>1.723941246334253</v>
@@ -3330,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="HC3">
-        <v>1.022940623423865</v>
+        <v>1.032307956859938</v>
       </c>
       <c r="HD3">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="HE3">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="HF3">
         <v>26.1744</v>
@@ -3345,109 +3493,109 @@
         <v>26.1744</v>
       </c>
       <c r="HH3">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="HJ3">
         <v>0.7333333333333333</v>
       </c>
       <c r="HK3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="HL3">
-        <v>0.6450000000000001</v>
+        <v>0.6316666666666669</v>
       </c>
       <c r="HM3">
         <v>0.2666666666666667</v>
       </c>
       <c r="HN3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="HO3">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="HP3">
+        <v>22</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3683333333333334</v>
+      </c>
+      <c r="HR3">
+        <v>-0.3880495756015134</v>
+      </c>
+      <c r="HS3">
+        <v>5</v>
+      </c>
+      <c r="HT3">
+        <v>0.6256269214215072</v>
+      </c>
+      <c r="HU3">
         <v>1</v>
       </c>
-      <c r="HQ3">
-        <v>0.3550000000000001</v>
-      </c>
-      <c r="HR3">
-        <v>-0.4094371914065766</v>
-      </c>
-      <c r="HS3">
-        <v>10</v>
-      </c>
-      <c r="HT3">
-        <v>0.5073800818492435</v>
-      </c>
-      <c r="HU3">
+      <c r="HV3">
+        <v>0.01333727323229686</v>
+      </c>
+      <c r="HW3">
+        <v>-0.2729533333333301</v>
+      </c>
+      <c r="HX3">
+        <v>5</v>
+      </c>
+      <c r="HY3">
+        <v>4.313723333333332</v>
+      </c>
+      <c r="HZ3">
+        <v>1</v>
+      </c>
+      <c r="IA3">
+        <v>0.1070329999999999</v>
+      </c>
+      <c r="IB3">
         <v>0</v>
       </c>
-      <c r="HV3">
-        <v>0.05205825704145318</v>
-      </c>
-      <c r="HW3">
-        <v>-0.9721033333333331</v>
-      </c>
-      <c r="HX3">
-        <v>10</v>
-      </c>
-      <c r="HY3">
-        <v>4.266693333333329</v>
-      </c>
-      <c r="HZ3">
-        <v>0</v>
-      </c>
-      <c r="IA3">
-        <v>0.1112991666666667</v>
-      </c>
-      <c r="IB3">
-        <v>1.6</v>
-      </c>
       <c r="IC3">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="ID3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="IE3">
-        <v>1.107557594010404</v>
+        <v>1.031706144760629</v>
       </c>
       <c r="IF3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="IG3">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="IH3">
-        <v>33.5</v>
+        <v>30.5</v>
       </c>
       <c r="II3">
-        <v>3.824264635194588</v>
+        <v>17.10384946924718</v>
       </c>
       <c r="IJ3">
-        <v>7.5</v>
+        <v>30.5</v>
       </c>
       <c r="IK3">
-        <v>3.824264635194588</v>
+        <v>17.10384946924718</v>
       </c>
       <c r="IL3">
-        <v>0.07925933392899932</v>
+        <v>0.6256269214215072</v>
       </c>
       <c r="IM3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.206789294630896</v>
+        <v>1.327148774681786</v>
       </c>
       <c r="IO3">
-        <v>1.003161516347404</v>
+        <v>1.000572586832793</v>
       </c>
       <c r="IP3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="IQ3">
         <v>1.501763889700465</v>
@@ -3456,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="IS3">
-        <v>1.048110834096136</v>
+        <v>1.011673597505354</v>
       </c>
       <c r="IT3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="IU3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="IV3">
         <v>26.2144</v>
@@ -3471,76 +3619,76 @@
         <v>26.21439999999999</v>
       </c>
       <c r="IX3">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="IY3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="IZ3">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="JA3">
+        <v>8</v>
+      </c>
+      <c r="JB3">
+        <v>0.6259259259259258</v>
+      </c>
+      <c r="JC3">
+        <v>0.3</v>
+      </c>
+      <c r="JD3">
+        <v>8</v>
+      </c>
+      <c r="JE3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="JF3">
+        <v>3</v>
+      </c>
+      <c r="JG3">
+        <v>0.3740740740740741</v>
+      </c>
+      <c r="JH3">
+        <v>-0.5345224838248352</v>
+      </c>
+      <c r="JI3">
+        <v>20</v>
+      </c>
+      <c r="JJ3">
+        <v>0.3883409642060868</v>
+      </c>
+      <c r="JK3">
+        <v>5</v>
+      </c>
+      <c r="JL3">
+        <v>0.07008794881838933</v>
+      </c>
+      <c r="JM3">
+        <v>-0.2033333333333331</v>
+      </c>
+      <c r="JN3">
+        <v>11</v>
+      </c>
+      <c r="JO3">
+        <v>1.899009999999997</v>
+      </c>
+      <c r="JP3">
+        <v>5</v>
+      </c>
+      <c r="JQ3">
+        <v>0.2547482716049379</v>
+      </c>
+      <c r="JR3">
         <v>1</v>
       </c>
-      <c r="JB3">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="JC3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JD3">
-        <v>1</v>
-      </c>
-      <c r="JE3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="JF3">
-        <v>14</v>
-      </c>
-      <c r="JG3">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="JH3">
-        <v>-0.2672612419124233</v>
-      </c>
-      <c r="JI3">
-        <v>16</v>
-      </c>
-      <c r="JJ3">
-        <v>0.5394493729499837</v>
-      </c>
-      <c r="JK3">
-        <v>0</v>
-      </c>
-      <c r="JL3">
-        <v>0.08661680856193768</v>
-      </c>
-      <c r="JM3">
-        <v>-0.09739333333333278</v>
-      </c>
-      <c r="JN3">
-        <v>7</v>
-      </c>
-      <c r="JO3">
-        <v>4.014329999999998</v>
-      </c>
-      <c r="JP3">
-        <v>0</v>
-      </c>
-      <c r="JQ3">
-        <v>0.1995103174603172</v>
-      </c>
-      <c r="JR3">
-        <v>1.333333333333333</v>
-      </c>
       <c r="JS3">
-        <v>1.666666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="JT3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="JU3">
-        <v>1.219730212923289</v>
+        <v>1.175489376226686</v>
       </c>
       <c r="JV3">
         <v>0</v>
@@ -3549,19 +3697,19 @@
         <v>0</v>
       </c>
       <c r="KB3">
-        <v>0.0231969131159757</v>
+        <v>0.2186894188183049</v>
       </c>
       <c r="KC3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="KD3">
-        <v>1.190228236349974</v>
+        <v>1.355716455097426</v>
       </c>
       <c r="KE3">
-        <v>1.002398571818604</v>
+        <v>1.000623455674847</v>
       </c>
       <c r="KF3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="KG3">
         <v>1.455518362956418</v>
@@ -3570,124 +3718,112 @@
         <v>0</v>
       </c>
       <c r="KI3">
-        <v>1.036124902188372</v>
+        <v>1.063063709507663</v>
       </c>
       <c r="KJ3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="KK3">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="KL3">
-        <v>26.1183</v>
+        <v>26.2144</v>
       </c>
       <c r="KM3">
-        <v>26.11829999999999</v>
+        <v>26.21439999999999</v>
       </c>
       <c r="KN3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="KO3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KP3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="KQ3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="KR3">
-        <v>0.639080459770115</v>
+        <v>0.6287356321839078</v>
       </c>
       <c r="KS3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="KT3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="KU3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="KV3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KW3">
-        <v>0.3609195402298851</v>
+        <v>0.3712643678160921</v>
       </c>
       <c r="KX3">
-        <v>-0.4902903378454427</v>
+        <v>-0.2222222222217848</v>
       </c>
       <c r="KY3">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="KZ3">
-        <v>0.4893591740403895</v>
+        <v>0.7034949364540191</v>
       </c>
       <c r="LA3">
         <v>0</v>
       </c>
       <c r="LB3">
-        <v>0.03973221833737518</v>
+        <v>0.05411784821069993</v>
       </c>
       <c r="LC3">
-        <v>-0.09008333333334306</v>
+        <v>-0.09155000000000513</v>
       </c>
       <c r="LD3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="LE3">
-        <v>4.494603333333327</v>
+        <v>6.461370000000001</v>
       </c>
       <c r="LF3">
         <v>0</v>
       </c>
       <c r="LG3">
-        <v>0.09931454022988498</v>
+        <v>0.1341233333333331</v>
       </c>
       <c r="LH3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="LI3">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="LJ3">
+        <v>9</v>
+      </c>
+      <c r="LK3">
+        <v>1.184106541694101</v>
+      </c>
+      <c r="LL3">
         <v>0</v>
       </c>
-      <c r="LJ3">
-        <v>8</v>
-      </c>
-      <c r="LK3">
-        <v>0.9751563064906918</v>
-      </c>
-      <c r="LL3">
-        <v>58</v>
-      </c>
       <c r="LM3">
-        <v>59</v>
-      </c>
-      <c r="LN3">
-        <v>29</v>
-      </c>
-      <c r="LO3">
-        <v>16.81517172080024</v>
-      </c>
-      <c r="LP3">
-        <v>30</v>
-      </c>
-      <c r="LQ3">
-        <v>16.81517172080024</v>
+        <v>0</v>
       </c>
       <c r="LR3">
-        <v>0.3324229020786391</v>
+        <v>0.2366365081239443</v>
       </c>
       <c r="LS3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LT3">
-        <v>1.28754430882974</v>
+        <v>1.174226537365656</v>
       </c>
       <c r="LU3">
-        <v>1.000384041737983</v>
+        <v>1.000045905630994</v>
       </c>
       <c r="LV3">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="LW3">
         <v>1.652502733746918</v>
@@ -3696,124 +3832,124 @@
         <v>0</v>
       </c>
       <c r="LY3">
-        <v>1.015144703930913</v>
+        <v>1.015533463752436</v>
       </c>
       <c r="LZ3">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="MA3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="MB3">
-        <v>26.0463</v>
+        <v>25.606</v>
       </c>
       <c r="MC3">
-        <v>26.0463</v>
+        <v>25.606</v>
       </c>
       <c r="MD3">
         <v>0.5333333333333333</v>
       </c>
       <c r="ME3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="MF3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="MG3">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="MH3">
-        <v>0.6348837209302327</v>
+        <v>0.6447368421052633</v>
       </c>
       <c r="MI3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="MJ3">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="MK3">
         <v>0.4666666666666667</v>
       </c>
       <c r="ML3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="MM3">
-        <v>0.3651162790697676</v>
+        <v>0.3552631578947369</v>
       </c>
       <c r="MN3">
-        <v>-0.4193765949901114</v>
+        <v>-0.3713906763541108</v>
       </c>
       <c r="MO3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="MP3">
-        <v>0.4964918072036541</v>
+        <v>0.4311346327449311</v>
       </c>
       <c r="MQ3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="MR3">
-        <v>0.03854851324603167</v>
+        <v>0.0653176833119043</v>
       </c>
       <c r="MS3">
-        <v>-0.1909566666666684</v>
+        <v>-0.1393466666666647</v>
       </c>
       <c r="MT3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="MU3">
-        <v>3.993526666666661</v>
+        <v>2.105166666666673</v>
       </c>
       <c r="MV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MW3">
-        <v>0.103147984496124</v>
+        <v>0.1621621929824563</v>
       </c>
       <c r="MX3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MY3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="MZ3">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="NA3">
-        <v>1.018510574296148</v>
+        <v>1.030918018713064</v>
       </c>
       <c r="NB3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="NC3">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="ND3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NE3">
-        <v>12.19631091765047</v>
+        <v>10.46422476822817</v>
       </c>
       <c r="NF3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="NG3">
-        <v>12.19631091765047</v>
+        <v>10.46422476822817</v>
       </c>
       <c r="NH3">
-        <v>0.4213486778504531</v>
+        <v>0.3047321465905816</v>
       </c>
       <c r="NI3">
         <v>1</v>
       </c>
       <c r="NJ3">
-        <v>1.213015446962734</v>
+        <v>1.348211284089852</v>
       </c>
       <c r="NK3">
-        <v>1.001128238978594</v>
+        <v>1.001478398948694</v>
       </c>
       <c r="NL3">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="NM3">
         <v>1.487982626277075</v>
@@ -3822,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="NO3">
-        <v>1.020171939099672</v>
+        <v>1.036381977604476</v>
       </c>
       <c r="NP3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="NQ3">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="NR3">
         <v>26.214</v>
@@ -3837,109 +3973,109 @@
         <v>26.21400000000001</v>
       </c>
       <c r="NT3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="NU3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="NV3">
         <v>0.7666666666666667</v>
       </c>
       <c r="NW3">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="NX3">
-        <v>0.6488505747126434</v>
+        <v>0.6340909090909091</v>
       </c>
       <c r="NY3">
         <v>0.2333333333333333</v>
       </c>
       <c r="NZ3">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="OA3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="OB3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="OC3">
-        <v>0.3511494252873564</v>
+        <v>0.365909090909091</v>
       </c>
       <c r="OD3">
-        <v>-0.4150286783196309</v>
+        <v>-0.416666666666791</v>
       </c>
       <c r="OE3">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="OF3">
-        <v>0.5315426924879236</v>
+        <v>0.4319329216169484</v>
       </c>
       <c r="OG3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="OH3">
-        <v>0.03270437432750712</v>
+        <v>0.08217727991918725</v>
       </c>
       <c r="OI3">
-        <v>-0.5974999999999966</v>
+        <v>-0.5792066666666678</v>
       </c>
       <c r="OJ3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="OK3">
-        <v>4.719266666666673</v>
+        <v>3.633033333333337</v>
       </c>
       <c r="OL3">
         <v>0</v>
       </c>
       <c r="OM3">
-        <v>0.08769758620689669</v>
+        <v>0.1402884848484851</v>
       </c>
       <c r="ON3">
         <v>0.5</v>
       </c>
       <c r="OO3">
-        <v>1.230769230769231</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="OP3">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="OQ3">
-        <v>1.039275996469039</v>
+        <v>1.093133060510231</v>
       </c>
       <c r="OR3">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="OS3">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="OT3">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="OU3">
-        <v>16.81517172080024</v>
+        <v>12.77367083757315</v>
       </c>
       <c r="OV3">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="OW3">
-        <v>16.81517172080024</v>
+        <v>12.77367083757315</v>
       </c>
       <c r="OX3">
-        <v>0.2327921768547681</v>
+        <v>0.2554502905817694</v>
       </c>
       <c r="OY3">
         <v>0</v>
       </c>
       <c r="OZ3">
-        <v>1.240750224588381</v>
+        <v>1.307998547000927</v>
       </c>
       <c r="PA3">
-        <v>1.001356074641404</v>
+        <v>1.000181615338712</v>
       </c>
       <c r="PB3">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="PC3">
         <v>1.597633063970574</v>
@@ -3948,187 +4084,259 @@
         <v>0</v>
       </c>
       <c r="PE3">
-        <v>1.02480647746608</v>
+        <v>1.043579627813774</v>
       </c>
       <c r="PF3">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="PG3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="PH3">
+        <v>2</v>
+      </c>
+      <c r="PI3">
+        <v>28</v>
+      </c>
+      <c r="PJ3">
+        <v>30</v>
+      </c>
+      <c r="PK3">
+        <v>29</v>
+      </c>
+      <c r="PL3">
         <v>1</v>
-      </c>
-      <c r="PI3">
-        <v>22</v>
-      </c>
-      <c r="PJ3">
-        <v>22</v>
-      </c>
-      <c r="PK3">
-        <v>22</v>
-      </c>
-      <c r="PL3">
-        <v>0</v>
       </c>
       <c r="PM3">
         <v>0.5333333333333333</v>
       </c>
       <c r="PN3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="PO3">
         <v>0.7333333333333333</v>
       </c>
       <c r="PP3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="PQ3">
-        <v>0.5333333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="PR3">
-        <v>0.7333333333333333</v>
+        <v>0.7166666666666666</v>
       </c>
       <c r="PS3">
-        <v>0.6285714285714286</v>
+        <v>0.6273307790549167</v>
       </c>
       <c r="PT3">
-        <v>0</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="PU3">
-        <v>0</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="PV3">
-        <v>0</v>
+        <v>0.001404853128991024</v>
       </c>
       <c r="PW3">
         <v>0.2666666666666667</v>
       </c>
       <c r="PX3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="PY3">
         <v>0.4666666666666667</v>
       </c>
       <c r="PZ3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="QA3">
-        <v>0.2666666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="QB3">
-        <v>0.4666666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="QC3">
-        <v>0.3714285714285714</v>
+        <v>0.3726692209450831</v>
       </c>
       <c r="QD3">
-        <v>0</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="QE3">
-        <v>0</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="QF3">
-        <v>0</v>
+        <v>0.001404853128990968</v>
       </c>
       <c r="QG3">
-        <v>-0.2672612419124233</v>
+        <v>-0.5345224838248352</v>
       </c>
       <c r="QH3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="QI3">
-        <v>0.5394493729499837</v>
+        <v>0.7034949364540191</v>
       </c>
       <c r="QJ3">
         <v>0</v>
       </c>
       <c r="QK3">
-        <v>-0.2672612419124233</v>
+        <v>-0.3783723530233101</v>
       </c>
       <c r="QL3">
-        <v>0.5394493729499837</v>
+        <v>0.5459179503300529</v>
       </c>
       <c r="QM3">
-        <v>0.08661680856193768</v>
+        <v>0.06210289851454463</v>
       </c>
       <c r="QN3">
-        <v>0</v>
+        <v>0.1561501308015252</v>
       </c>
       <c r="QO3">
-        <v>0</v>
+        <v>0.1575769861239661</v>
       </c>
       <c r="QP3">
-        <v>0</v>
+        <v>0.007985050303844696</v>
       </c>
       <c r="QQ3">
-        <v>-0.09739333333333278</v>
+        <v>-0.2033333333333331</v>
       </c>
       <c r="QR3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="QS3">
-        <v>4.014329999999998</v>
+        <v>6.461370000000001</v>
       </c>
       <c r="QT3">
         <v>0</v>
       </c>
       <c r="QU3">
-        <v>-0.09739333333333278</v>
+        <v>-0.1474416666666691</v>
       </c>
       <c r="QV3">
-        <v>4.014329999999998</v>
+        <v>4.180189999999999</v>
       </c>
       <c r="QW3">
-        <v>0.1995103174603172</v>
+        <v>0.1944358024691355</v>
       </c>
       <c r="QX3">
-        <v>1.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="QY3">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="QZ3">
-        <v>1.333333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="RA3">
-        <v>1.666666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="RB3">
-        <v>1.666666666666667</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="RC3">
-        <v>1.666666666666667</v>
+        <v>1.296703296703297</v>
       </c>
       <c r="RD3">
-        <v>1.219730212923289</v>
+        <v>1.175489376226686</v>
       </c>
       <c r="RE3">
-        <v>1.219730212923289</v>
+        <v>1.184106541694101</v>
       </c>
       <c r="RF3">
-        <v>1.219730212923289</v>
+        <v>1.179797958960394</v>
       </c>
       <c r="RG3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="RH3">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="RI3">
-        <v>47</v>
+        <v>40.375</v>
       </c>
       <c r="RJ3">
-        <v>14.45298892578587</v>
+        <v>14.78121696613645</v>
       </c>
       <c r="RK3">
-        <v>26.04505555555556</v>
+        <v>25.910575</v>
       </c>
       <c r="RL3">
-        <v>0.2306164353356322</v>
+        <v>0.2757137136143218</v>
       </c>
       <c r="RM3">
         <v>26.214</v>
+      </c>
+      <c r="RR3">
+        <v>24</v>
+      </c>
+      <c r="RT3">
+        <v>0</v>
+      </c>
+      <c r="RW3">
+        <v>0.2186894188183049</v>
+      </c>
+      <c r="RX3">
+        <v>0.2366365081239443</v>
+      </c>
+      <c r="RY3">
+        <v>0.2276629634711246</v>
+      </c>
+      <c r="RZ3">
+        <v>0.008973544652819687</v>
+      </c>
+      <c r="SA3">
+        <v>1</v>
+      </c>
+      <c r="SB3">
+        <v>4</v>
+      </c>
+      <c r="SC3">
+        <v>2.5</v>
+      </c>
+      <c r="SD3">
+        <v>1.5</v>
+      </c>
+      <c r="SE3">
+        <v>1.000045905630994</v>
+      </c>
+      <c r="SF3">
+        <v>24</v>
+      </c>
+      <c r="SG3">
+        <v>1.652502733746918</v>
+      </c>
+      <c r="SH3">
+        <v>0</v>
+      </c>
+      <c r="SI3">
+        <v>1.00033468065292</v>
+      </c>
+      <c r="SJ3">
+        <v>1.554010548351668</v>
+      </c>
+      <c r="SK3">
+        <v>1.039298586630049</v>
+      </c>
+      <c r="SL3">
+        <v>0.0002887750219264795</v>
+      </c>
+      <c r="SM3">
+        <v>0.09849218539525029</v>
+      </c>
+      <c r="SN3">
+        <v>0.02376512287761379</v>
+      </c>
+      <c r="SO3">
+        <v>1.174226537365656</v>
+      </c>
+      <c r="SP3">
+        <v>1.355716455097426</v>
+      </c>
+      <c r="SQ3">
+        <v>1.264971496231541</v>
+      </c>
+      <c r="SR3">
+        <v>0.09074495886588496</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4351,7 @@
     <mergeCell ref="KK1:LZ1"/>
     <mergeCell ref="MA1:NP1"/>
     <mergeCell ref="NQ1:PF1"/>
-    <mergeCell ref="PG1:RV1"/>
+    <mergeCell ref="PG1:SR1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
